--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_20_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_20_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1700584.193837058</v>
+        <v>1699882.058152684</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>176.0517191689127</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>110.8951646601612</v>
       </c>
       <c r="F11" t="n">
-        <v>182.6129994303772</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>198.6988396730519</v>
@@ -1421,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>42.18246213585448</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>72.67262509955668</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>170.6096462656427</v>
       </c>
       <c r="X11" t="n">
-        <v>191.0997782266988</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.5415757500918</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.83975863332243</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1503,19 +1503,19 @@
         <v>198.6988396730519</v>
       </c>
       <c r="U12" t="n">
-        <v>47.29170902643615</v>
+        <v>47.29170902643612</v>
       </c>
       <c r="V12" t="n">
-        <v>54.16926469765502</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="W12" t="n">
-        <v>134.5075327903878</v>
+        <v>73.06366070914933</v>
       </c>
       <c r="X12" t="n">
-        <v>27.14166275170723</v>
+        <v>143.4662759626341</v>
       </c>
       <c r="Y12" t="n">
-        <v>27.05137332553412</v>
+        <v>27.05137332553409</v>
       </c>
     </row>
     <row r="13">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.200657730167052</v>
+        <v>1.200657730167023</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>41.30999778875469</v>
+        <v>41.30999778875466</v>
       </c>
       <c r="T13" t="n">
-        <v>48.31511175255181</v>
+        <v>48.31511175255179</v>
       </c>
       <c r="U13" t="n">
         <v>107.6749517316488</v>
       </c>
       <c r="V13" t="n">
-        <v>73.50632087205776</v>
+        <v>73.50632087205773</v>
       </c>
       <c r="W13" t="n">
-        <v>107.8916758848208</v>
+        <v>107.8916758848207</v>
       </c>
       <c r="X13" t="n">
-        <v>47.07833293726691</v>
+        <v>47.07833293726688</v>
       </c>
       <c r="Y13" t="n">
-        <v>39.95333090032454</v>
+        <v>39.95333090032452</v>
       </c>
     </row>
     <row r="14">
@@ -1607,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>186.6415693192373</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>176.0517191689127</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="H14" t="n">
         <v>155.5045423845798</v>
       </c>
       <c r="I14" t="n">
-        <v>11.74649515820831</v>
+        <v>11.74649515820825</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>18.50923699120967</v>
       </c>
       <c r="T14" t="n">
-        <v>42.18246213585454</v>
+        <v>42.18246213585448</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>72.67262509955668</v>
       </c>
       <c r="V14" t="n">
-        <v>149.1209360183647</v>
+        <v>101.1866092950764</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>170.6096462656427</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>49.86273281802249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,7 +1686,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>78.40816725220627</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.83975863332243</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T15" t="n">
-        <v>20.40912598010594</v>
+        <v>20.40912598010589</v>
       </c>
       <c r="U15" t="n">
-        <v>198.6988396730519</v>
+        <v>47.29170902643612</v>
       </c>
       <c r="V15" t="n">
-        <v>54.16926469765505</v>
+        <v>54.169264697655</v>
       </c>
       <c r="W15" t="n">
-        <v>198.6988396730519</v>
+        <v>73.06366070914933</v>
       </c>
       <c r="X15" t="n">
-        <v>27.14166275170726</v>
+        <v>133.2501967255568</v>
       </c>
       <c r="Y15" t="n">
-        <v>27.05137332553414</v>
+        <v>27.05137332553409</v>
       </c>
     </row>
     <row r="16">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.20065773016708</v>
+        <v>1.200657730167023</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>41.30999778875472</v>
+        <v>41.30999778875466</v>
       </c>
       <c r="T16" t="n">
-        <v>48.31511175255184</v>
+        <v>48.31511175255179</v>
       </c>
       <c r="U16" t="n">
         <v>107.6749517316488</v>
       </c>
       <c r="V16" t="n">
-        <v>73.50632087205778</v>
+        <v>73.50632087205773</v>
       </c>
       <c r="W16" t="n">
-        <v>107.8916758848208</v>
+        <v>107.8916758848207</v>
       </c>
       <c r="X16" t="n">
-        <v>47.07833293726694</v>
+        <v>47.07833293726688</v>
       </c>
       <c r="Y16" t="n">
-        <v>39.95333090032457</v>
+        <v>39.95333090032452</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.5279065922857</v>
+        <v>82.52790659228504</v>
       </c>
       <c r="C17" t="n">
         <v>65.06695669981201</v>
@@ -1859,7 +1859,7 @@
         <v>114.5754854875702</v>
       </c>
       <c r="H17" t="n">
-        <v>33.92992976515453</v>
+        <v>33.92992976515455</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.30543899570841</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1971,25 +1971,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="U18" t="n">
         <v>198.6988396730519</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>34.50209441320747</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2005,13 +2005,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>6.473306065482476</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2044,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>66.58072672426806</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>35.23026070930617</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>81.72443500106624</v>
       </c>
       <c r="F20" t="n">
-        <v>106.6701106705159</v>
+        <v>106.6701106705165</v>
       </c>
       <c r="G20" t="n">
         <v>114.5754854875702</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>27.54632339893955</v>
+        <v>27.54632339893936</v>
       </c>
       <c r="W20" t="n">
         <v>49.03503364621747</v>
@@ -2157,22 +2157,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>8.511753728471318</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0645880011306</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2208,16 +2208,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>17.3533269387583</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>155.0887790836948</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>101.8109874335742</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>109.5415757500918</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,22 +2442,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.83975863332243</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
+        <v>124.3708347682008</v>
+      </c>
+      <c r="W24" t="n">
         <v>198.6988396730519</v>
-      </c>
-      <c r="W24" t="n">
-        <v>148.89179236553</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2476,10 +2476,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>133.2630060079982</v>
+        <v>35.23026070930619</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>66.58072672426806</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>48.13846922012344</v>
+        <v>48.13846922012343</v>
       </c>
       <c r="T26" t="n">
         <v>71.81169436476824</v>
@@ -2631,22 +2631,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>126.526951441151</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>32.43510343686035</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>8.642990232544435</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0645880011306</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.83975863332243</v>
       </c>
       <c r="S27" t="n">
         <v>166.5021842555528</v>
@@ -2697,10 +2697,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>56.77089498062097</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>56.68060555444785</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2761,7 +2761,7 @@
         <v>17.77678681877389</v>
       </c>
       <c r="S28" t="n">
-        <v>70.93923001766844</v>
+        <v>70.93923001766842</v>
       </c>
       <c r="T28" t="n">
         <v>77.94434398146555</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>233.731751440624</v>
+        <v>233.7317514406241</v>
       </c>
       <c r="C29" t="n">
         <v>216.270801548151</v>
@@ -2798,7 +2798,7 @@
         <v>205.6809513978264</v>
       </c>
       <c r="E29" t="n">
-        <v>232.9282798494052</v>
+        <v>232.9282798494053</v>
       </c>
       <c r="F29" t="n">
         <v>257.8739555188549</v>
@@ -2807,10 +2807,10 @@
         <v>265.7793303359093</v>
       </c>
       <c r="H29" t="n">
-        <v>185.1337746134935</v>
+        <v>185.1337746134936</v>
       </c>
       <c r="I29" t="n">
-        <v>41.375727387122</v>
+        <v>41.37572738712203</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>48.13846922012341</v>
+        <v>48.13846922012344</v>
       </c>
       <c r="T29" t="n">
-        <v>71.81169436476821</v>
+        <v>71.81169436476824</v>
       </c>
       <c r="U29" t="n">
         <v>102.3018573284704</v>
@@ -2858,7 +2858,7 @@
         <v>220.7290104556125</v>
       </c>
       <c r="Y29" t="n">
-        <v>237.235848433197</v>
+        <v>237.2358484331971</v>
       </c>
     </row>
     <row r="30">
@@ -2877,19 +2877,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>8.642990232544435</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0645880011306</v>
+        <v>10.28571932961891</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>79.79315073593985</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.83975863332243</v>
       </c>
       <c r="S30" t="n">
-        <v>17.50009403269624</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T30" t="n">
         <v>199.0404484318762</v>
@@ -2928,7 +2928,7 @@
         <v>225.9230314782064</v>
       </c>
       <c r="V30" t="n">
-        <v>83.79849692656873</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -2937,7 +2937,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>81.95043500317527</v>
+        <v>56.68060555444785</v>
       </c>
     </row>
     <row r="31">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>30.82988995908076</v>
+        <v>30.82988995908079</v>
       </c>
       <c r="C31" t="n">
-        <v>18.2447308757713</v>
+        <v>18.24473087577132</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>18.75504429595214</v>
+        <v>18.75504429595217</v>
       </c>
       <c r="H31" t="n">
-        <v>11.14598907387595</v>
+        <v>11.14598907387598</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.77678681877386</v>
+        <v>17.77678681877389</v>
       </c>
       <c r="S31" t="n">
-        <v>70.93923001766841</v>
+        <v>70.93923001766842</v>
       </c>
       <c r="T31" t="n">
-        <v>77.94434398146552</v>
+        <v>77.94434398146555</v>
       </c>
       <c r="U31" t="n">
-        <v>137.3041839605625</v>
+        <v>137.3041839605626</v>
       </c>
       <c r="V31" t="n">
         <v>103.1355531009715</v>
@@ -3013,10 +3013,10 @@
         <v>137.5209081137345</v>
       </c>
       <c r="X31" t="n">
-        <v>76.70756516618061</v>
+        <v>76.70756516618064</v>
       </c>
       <c r="Y31" t="n">
-        <v>69.58256312923825</v>
+        <v>69.58256312923828</v>
       </c>
     </row>
     <row r="32">
@@ -3108,19 +3108,19 @@
         <v>17.5310934270108</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>23.7064087654592</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>49.74623380238364</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0645880011306</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>109.5415757500918</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.83975863332243</v>
       </c>
       <c r="S33" t="n">
-        <v>164.3994418613831</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T33" t="n">
         <v>199.0404484318762</v>
@@ -3165,7 +3165,7 @@
         <v>225.9230314782064</v>
       </c>
       <c r="V33" t="n">
-        <v>83.79849692656873</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3235,7 +3235,7 @@
         <v>17.77678681877386</v>
       </c>
       <c r="S34" t="n">
-        <v>70.93923001766841</v>
+        <v>70.93923001766839</v>
       </c>
       <c r="T34" t="n">
         <v>77.94434398146552</v>
@@ -3354,16 +3354,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0645880011306</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>36.1752102655439</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,10 +3393,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>199.0404484318762</v>
       </c>
       <c r="U36" t="n">
         <v>225.9230314782064</v>
@@ -3408,7 +3408,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>158.5393631761072</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3518,7 +3518,7 @@
         <v>213.3488487669912</v>
       </c>
       <c r="H38" t="n">
-        <v>132.7032930445756</v>
+        <v>132.7032930445755</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>19.38121279585022</v>
+        <v>19.38121279585019</v>
       </c>
       <c r="U38" t="n">
-        <v>49.87137575955242</v>
+        <v>49.87137575955239</v>
       </c>
       <c r="V38" t="n">
-        <v>126.3196866783604</v>
+        <v>126.3196866783603</v>
       </c>
       <c r="W38" t="n">
-        <v>147.8083969256385</v>
+        <v>147.8083969256384</v>
       </c>
       <c r="X38" t="n">
         <v>168.2985288866945</v>
       </c>
       <c r="Y38" t="n">
-        <v>184.8053668642791</v>
+        <v>184.805366864279</v>
       </c>
     </row>
     <row r="39">
@@ -3582,7 +3582,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3591,10 +3591,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0645880011306</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.83975863332243</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T39" t="n">
         <v>199.0404484318762</v>
       </c>
       <c r="U39" t="n">
-        <v>197.926990814496</v>
+        <v>225.9230314782064</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3648,7 +3648,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>93.04858682078127</v>
       </c>
     </row>
     <row r="40">
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.5087484487504</v>
+        <v>18.50874844875037</v>
       </c>
       <c r="T40" t="n">
-        <v>25.51386241254752</v>
+        <v>25.51386241254749</v>
       </c>
       <c r="U40" t="n">
-        <v>84.87370239164453</v>
+        <v>84.8737023916445</v>
       </c>
       <c r="V40" t="n">
-        <v>50.70507153205347</v>
+        <v>50.70507153205344</v>
       </c>
       <c r="W40" t="n">
-        <v>85.09042654481647</v>
+        <v>85.09042654481644</v>
       </c>
       <c r="X40" t="n">
-        <v>24.27708359726262</v>
+        <v>24.27708359726259</v>
       </c>
       <c r="Y40" t="n">
-        <v>17.15208156032025</v>
+        <v>17.15208156032023</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>181.3012698717061</v>
       </c>
       <c r="C41" t="n">
-        <v>163.840319979233</v>
+        <v>163.8403199792331</v>
       </c>
       <c r="D41" t="n">
         <v>153.2504698289085</v>
@@ -3749,10 +3749,10 @@
         <v>180.4977982804873</v>
       </c>
       <c r="F41" t="n">
-        <v>205.4434739499369</v>
+        <v>205.443473949937</v>
       </c>
       <c r="G41" t="n">
-        <v>213.3488487669912</v>
+        <v>213.3488487669913</v>
       </c>
       <c r="H41" t="n">
         <v>132.7032930445756</v>
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>19.38121279585025</v>
+        <v>19.38121279585027</v>
       </c>
       <c r="U41" t="n">
-        <v>49.87137575955244</v>
+        <v>49.87137575955247</v>
       </c>
       <c r="V41" t="n">
         <v>126.3196866783604</v>
@@ -3803,7 +3803,7 @@
         <v>147.8083969256385</v>
       </c>
       <c r="X41" t="n">
-        <v>168.2985288866945</v>
+        <v>168.2985288866946</v>
       </c>
       <c r="Y41" t="n">
         <v>184.8053668642791</v>
@@ -3816,16 +3816,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>63.29770627090199</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -3876,13 +3876,13 @@
         <v>225.9230314782064</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>31.36801535765079</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>190.3838119960986</v>
+        <v>4.340413411702997</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.50874844875043</v>
+        <v>18.50874844875046</v>
       </c>
       <c r="T43" t="n">
-        <v>25.51386241254755</v>
+        <v>25.51386241254758</v>
       </c>
       <c r="U43" t="n">
-        <v>84.87370239164456</v>
+        <v>84.87370239164458</v>
       </c>
       <c r="V43" t="n">
-        <v>50.70507153205349</v>
+        <v>50.70507153205352</v>
       </c>
       <c r="W43" t="n">
-        <v>85.09042654481649</v>
+        <v>85.09042654481652</v>
       </c>
       <c r="X43" t="n">
-        <v>24.27708359726265</v>
+        <v>24.27708359726267</v>
       </c>
       <c r="Y43" t="n">
-        <v>17.15208156032028</v>
+        <v>17.15208156032031</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>181.3012698717061</v>
       </c>
       <c r="C44" t="n">
-        <v>163.840319979233</v>
+        <v>163.8403199792331</v>
       </c>
       <c r="D44" t="n">
         <v>153.2504698289085</v>
@@ -3986,10 +3986,10 @@
         <v>180.4977982804873</v>
       </c>
       <c r="F44" t="n">
-        <v>205.4434739499369</v>
+        <v>205.443473949937</v>
       </c>
       <c r="G44" t="n">
-        <v>213.3488487669904</v>
+        <v>213.3488487669913</v>
       </c>
       <c r="H44" t="n">
         <v>132.7032930445756</v>
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>19.38121279585025</v>
+        <v>19.38121279585027</v>
       </c>
       <c r="U44" t="n">
-        <v>49.87137575955245</v>
+        <v>49.87137575955248</v>
       </c>
       <c r="V44" t="n">
         <v>126.3196866783604</v>
@@ -4040,7 +4040,7 @@
         <v>147.8083969256385</v>
       </c>
       <c r="X44" t="n">
-        <v>168.2985288866945</v>
+        <v>168.2985288866946</v>
       </c>
       <c r="Y44" t="n">
         <v>184.8053668642791</v>
@@ -4056,7 +4056,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0645880011306</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>109.5415757500918</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,25 +4101,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.83975863332245</v>
+        <v>82.83975863332243</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>199.0404484318762</v>
       </c>
       <c r="U45" t="n">
         <v>225.9230314782064</v>
       </c>
       <c r="V45" t="n">
-        <v>120.3819543679284</v>
+        <v>31.36801535765079</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>193.0483804315318</v>
       </c>
       <c r="X45" t="n">
-        <v>4.340413411702968</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.50874844875043</v>
+        <v>18.50874844875046</v>
       </c>
       <c r="T46" t="n">
-        <v>25.51386241254755</v>
+        <v>25.51386241254758</v>
       </c>
       <c r="U46" t="n">
-        <v>84.87370239164456</v>
+        <v>84.87370239164458</v>
       </c>
       <c r="V46" t="n">
-        <v>50.70507153205349</v>
+        <v>50.70507153205352</v>
       </c>
       <c r="W46" t="n">
-        <v>85.09042654481649</v>
+        <v>85.09042654481652</v>
       </c>
       <c r="X46" t="n">
-        <v>24.27708359726265</v>
+        <v>24.27708359726267</v>
       </c>
       <c r="Y46" t="n">
-        <v>17.15208156032028</v>
+        <v>17.15208156032031</v>
       </c>
     </row>
   </sheetData>
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>401.0593810156918</v>
+        <v>506.4471430345775</v>
       </c>
       <c r="C11" t="n">
-        <v>401.0593810156918</v>
+        <v>506.4471430345775</v>
       </c>
       <c r="D11" t="n">
-        <v>401.0593810156918</v>
+        <v>328.6171236720394</v>
       </c>
       <c r="E11" t="n">
-        <v>401.0593810156918</v>
+        <v>216.6018058334926</v>
       </c>
       <c r="F11" t="n">
         <v>216.6018058334926</v>
@@ -5039,16 +5039,16 @@
         <v>15.89590717384415</v>
       </c>
       <c r="J11" t="n">
-        <v>15.89590717384415</v>
+        <v>47.86977448817004</v>
       </c>
       <c r="K11" t="n">
-        <v>184.56125015564</v>
+        <v>47.86977448817004</v>
       </c>
       <c r="L11" t="n">
-        <v>237.4952311751342</v>
+        <v>47.86977448817004</v>
       </c>
       <c r="M11" t="n">
-        <v>434.2070824514556</v>
+        <v>244.5816257644914</v>
       </c>
       <c r="N11" t="n">
         <v>434.2070824514556</v>
@@ -5069,22 +5069,22 @@
         <v>794.7953586922076</v>
       </c>
       <c r="T11" t="n">
-        <v>794.7953586922076</v>
+        <v>752.1868110802335</v>
       </c>
       <c r="U11" t="n">
-        <v>794.7953586922076</v>
+        <v>678.7801190604793</v>
       </c>
       <c r="V11" t="n">
-        <v>794.7953586922076</v>
+        <v>678.7801190604793</v>
       </c>
       <c r="W11" t="n">
-        <v>794.7953586922076</v>
+        <v>506.4471430345775</v>
       </c>
       <c r="X11" t="n">
-        <v>601.7652796753401</v>
+        <v>506.4471430345775</v>
       </c>
       <c r="Y11" t="n">
-        <v>601.7652796753401</v>
+        <v>506.4471430345775</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>300.9969927681952</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="C12" t="n">
-        <v>126.5439634870682</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="D12" t="n">
-        <v>126.5439634870682</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="E12" t="n">
-        <v>126.5439634870682</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="F12" t="n">
-        <v>126.5439634870682</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="G12" t="n">
-        <v>126.5439634870682</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="H12" t="n">
         <v>15.89590717384415</v>
@@ -5121,49 +5121,49 @@
         <v>41.24594382033391</v>
       </c>
       <c r="K12" t="n">
-        <v>100.0162341137481</v>
+        <v>41.24594382033391</v>
       </c>
       <c r="L12" t="n">
-        <v>296.7280853900695</v>
+        <v>41.24594382033391</v>
       </c>
       <c r="M12" t="n">
-        <v>296.7280853900695</v>
+        <v>237.9577950966553</v>
       </c>
       <c r="N12" t="n">
-        <v>296.7280853900695</v>
+        <v>434.6696463729767</v>
       </c>
       <c r="O12" t="n">
-        <v>493.4399366663909</v>
+        <v>598.0835074158863</v>
       </c>
       <c r="P12" t="n">
-        <v>690.1517879427123</v>
+        <v>794.7953586922076</v>
       </c>
       <c r="Q12" t="n">
         <v>794.7953586922076</v>
       </c>
       <c r="R12" t="n">
-        <v>794.7953586922076</v>
+        <v>711.1188348201648</v>
       </c>
       <c r="S12" t="n">
-        <v>794.7953586922076</v>
+        <v>711.1188348201648</v>
       </c>
       <c r="T12" t="n">
-        <v>594.0894600325593</v>
+        <v>510.4129361605164</v>
       </c>
       <c r="U12" t="n">
-        <v>546.320056975553</v>
+        <v>462.6435331035103</v>
       </c>
       <c r="V12" t="n">
-        <v>491.6036279880227</v>
+        <v>261.9376344438618</v>
       </c>
       <c r="W12" t="n">
-        <v>355.7374332502572</v>
+        <v>188.1359569598726</v>
       </c>
       <c r="X12" t="n">
-        <v>328.3216122889368</v>
+        <v>43.22052669458566</v>
       </c>
       <c r="Y12" t="n">
-        <v>300.9969927681952</v>
+        <v>15.89590717384415</v>
       </c>
     </row>
     <row r="13">
@@ -5179,70 +5179,70 @@
         <v>15.89590717384415</v>
       </c>
       <c r="D13" t="n">
-        <v>15.89590717384415</v>
+        <v>45.61159811306649</v>
       </c>
       <c r="E13" t="n">
-        <v>15.89590717384415</v>
+        <v>77.48698432021558</v>
       </c>
       <c r="F13" t="n">
-        <v>15.89590717384415</v>
+        <v>77.48698432021558</v>
       </c>
       <c r="G13" t="n">
-        <v>15.89590717384415</v>
+        <v>77.48698432021558</v>
       </c>
       <c r="H13" t="n">
-        <v>15.89590717384415</v>
+        <v>77.48698432021558</v>
       </c>
       <c r="I13" t="n">
-        <v>45.8069747891732</v>
+        <v>77.48698432021558</v>
       </c>
       <c r="J13" t="n">
-        <v>45.8069747891732</v>
+        <v>178.2739070935902</v>
       </c>
       <c r="K13" t="n">
-        <v>50.65701133810147</v>
+        <v>188.8475118954654</v>
       </c>
       <c r="L13" t="n">
-        <v>112.3898229145512</v>
+        <v>250.5803234719152</v>
       </c>
       <c r="M13" t="n">
-        <v>187.8675402375505</v>
+        <v>326.0580407949145</v>
       </c>
       <c r="N13" t="n">
-        <v>266.9851825654551</v>
+        <v>405.1756831228191</v>
       </c>
       <c r="O13" t="n">
-        <v>324.0468353022695</v>
+        <v>462.2373358596335</v>
       </c>
       <c r="P13" t="n">
-        <v>487.5427552522202</v>
+        <v>487.5427552522201</v>
       </c>
       <c r="Q13" t="n">
-        <v>487.5427552522202</v>
+        <v>487.5427552522201</v>
       </c>
       <c r="R13" t="n">
-        <v>487.5427552522202</v>
+        <v>487.5427552522201</v>
       </c>
       <c r="S13" t="n">
-        <v>445.8154847585286</v>
+        <v>445.8154847585285</v>
       </c>
       <c r="T13" t="n">
-        <v>397.0123415741328</v>
+        <v>397.0123415741327</v>
       </c>
       <c r="U13" t="n">
-        <v>288.2497640674169</v>
+        <v>288.2497640674168</v>
       </c>
       <c r="V13" t="n">
-        <v>214.0009551057424</v>
+        <v>214.0009551057423</v>
       </c>
       <c r="W13" t="n">
-        <v>105.0194643129942</v>
+        <v>105.0194643129941</v>
       </c>
       <c r="X13" t="n">
-        <v>57.4655926591892</v>
+        <v>57.46559265918914</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.10869275987148</v>
+        <v>17.10869275987145</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>551.193206194994</v>
+        <v>385.5422477959047</v>
       </c>
       <c r="C14" t="n">
-        <v>362.6663684987946</v>
+        <v>385.5422477959047</v>
       </c>
       <c r="D14" t="n">
-        <v>184.8363491362564</v>
+        <v>385.5422477959047</v>
       </c>
       <c r="E14" t="n">
-        <v>184.8363491362564</v>
+        <v>385.5422477959047</v>
       </c>
       <c r="F14" t="n">
-        <v>184.8363491362564</v>
+        <v>385.5422477959047</v>
       </c>
       <c r="G14" t="n">
-        <v>184.8363491362564</v>
+        <v>184.8363491362563</v>
       </c>
       <c r="H14" t="n">
-        <v>27.76105379829699</v>
+        <v>27.76105379829687</v>
       </c>
       <c r="I14" t="n">
         <v>15.89590717384415</v>
       </c>
       <c r="J14" t="n">
-        <v>15.89590717384415</v>
+        <v>47.86977448817004</v>
       </c>
       <c r="K14" t="n">
-        <v>184.56125015564</v>
+        <v>47.86977448817004</v>
       </c>
       <c r="L14" t="n">
-        <v>184.56125015564</v>
+        <v>47.86977448817004</v>
       </c>
       <c r="M14" t="n">
-        <v>381.2731014319614</v>
+        <v>244.5816257644914</v>
       </c>
       <c r="N14" t="n">
-        <v>577.9849527082829</v>
+        <v>441.2934770408128</v>
       </c>
       <c r="O14" t="n">
-        <v>585.0763231427726</v>
+        <v>638.0053283171342</v>
       </c>
       <c r="P14" t="n">
-        <v>748.9527481072032</v>
+        <v>794.7953586922076</v>
       </c>
       <c r="Q14" t="n">
         <v>794.7953586922076</v>
@@ -5303,25 +5303,25 @@
         <v>794.7953586922076</v>
       </c>
       <c r="S14" t="n">
-        <v>794.7953586922076</v>
+        <v>776.0991597111878</v>
       </c>
       <c r="T14" t="n">
-        <v>752.1868110802336</v>
+        <v>733.4906120992136</v>
       </c>
       <c r="U14" t="n">
-        <v>752.1868110802336</v>
+        <v>660.0839200794594</v>
       </c>
       <c r="V14" t="n">
-        <v>601.5596029808753</v>
+        <v>557.8752238218065</v>
       </c>
       <c r="W14" t="n">
-        <v>601.5596029808753</v>
+        <v>385.5422477959047</v>
       </c>
       <c r="X14" t="n">
-        <v>601.5596029808753</v>
+        <v>385.5422477959047</v>
       </c>
       <c r="Y14" t="n">
-        <v>551.193206194994</v>
+        <v>385.5422477959047</v>
       </c>
     </row>
     <row r="15">
@@ -5331,7 +5331,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>95.09607611546664</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="C15" t="n">
         <v>15.89590717384415</v>
@@ -5364,13 +5364,13 @@
         <v>407.9058885347471</v>
       </c>
       <c r="M15" t="n">
-        <v>604.6177398110685</v>
+        <v>407.9058885347471</v>
       </c>
       <c r="N15" t="n">
         <v>604.6177398110685</v>
       </c>
       <c r="O15" t="n">
-        <v>690.1517879427123</v>
+        <v>604.6177398110685</v>
       </c>
       <c r="P15" t="n">
         <v>690.1517879427123</v>
@@ -5379,28 +5379,28 @@
         <v>794.7953586922076</v>
       </c>
       <c r="R15" t="n">
-        <v>794.7953586922076</v>
+        <v>711.1188348201648</v>
       </c>
       <c r="S15" t="n">
-        <v>794.7953586922076</v>
+        <v>542.9348103196064</v>
       </c>
       <c r="T15" t="n">
-        <v>774.1800799244238</v>
+        <v>522.3195315518227</v>
       </c>
       <c r="U15" t="n">
-        <v>573.4741812647754</v>
+        <v>474.5501284948165</v>
       </c>
       <c r="V15" t="n">
-        <v>518.7577522772451</v>
+        <v>419.8336995072862</v>
       </c>
       <c r="W15" t="n">
-        <v>318.0518536175967</v>
+        <v>346.032022023297</v>
       </c>
       <c r="X15" t="n">
-        <v>290.6360326562763</v>
+        <v>211.4358637146537</v>
       </c>
       <c r="Y15" t="n">
-        <v>263.3114131355347</v>
+        <v>184.1112441939122</v>
       </c>
     </row>
     <row r="16">
@@ -5413,73 +5413,73 @@
         <v>15.89590717384415</v>
       </c>
       <c r="C16" t="n">
-        <v>27.16656351345511</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="D16" t="n">
-        <v>27.16656351345511</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="E16" t="n">
-        <v>27.16656351345511</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="F16" t="n">
-        <v>27.16656351345511</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="G16" t="n">
-        <v>27.16656351345511</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="H16" t="n">
-        <v>27.16656351345511</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="I16" t="n">
-        <v>57.07763112878413</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="J16" t="n">
-        <v>57.07763112878413</v>
+        <v>49.01843564666555</v>
       </c>
       <c r="K16" t="n">
-        <v>61.9276676777124</v>
+        <v>53.86847219559382</v>
       </c>
       <c r="L16" t="n">
-        <v>123.6604792541622</v>
+        <v>250.5803234719152</v>
       </c>
       <c r="M16" t="n">
-        <v>314.3241198388765</v>
+        <v>326.0580407949145</v>
       </c>
       <c r="N16" t="n">
-        <v>393.4417621667811</v>
+        <v>405.1756831228191</v>
       </c>
       <c r="O16" t="n">
-        <v>450.5034149035955</v>
+        <v>462.2373358596335</v>
       </c>
       <c r="P16" t="n">
-        <v>475.8088342961821</v>
+        <v>487.5427552522201</v>
       </c>
       <c r="Q16" t="n">
-        <v>475.8088342961821</v>
+        <v>487.5427552522201</v>
       </c>
       <c r="R16" t="n">
-        <v>487.5427552522206</v>
+        <v>487.5427552522201</v>
       </c>
       <c r="S16" t="n">
-        <v>445.8154847585289</v>
+        <v>445.8154847585285</v>
       </c>
       <c r="T16" t="n">
-        <v>397.0123415741331</v>
+        <v>397.0123415741327</v>
       </c>
       <c r="U16" t="n">
-        <v>288.2497640674171</v>
+        <v>288.2497640674168</v>
       </c>
       <c r="V16" t="n">
-        <v>214.0009551057425</v>
+        <v>214.0009551057423</v>
       </c>
       <c r="W16" t="n">
-        <v>105.0194643129942</v>
+        <v>105.0194643129941</v>
       </c>
       <c r="X16" t="n">
-        <v>57.46559265918926</v>
+        <v>57.46559265918914</v>
       </c>
       <c r="Y16" t="n">
-        <v>17.10869275987151</v>
+        <v>17.10869275987145</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>476.9504770461731</v>
+        <v>476.9504770461735</v>
       </c>
       <c r="C17" t="n">
-        <v>411.2262783594948</v>
+        <v>411.2262783594947</v>
       </c>
       <c r="D17" t="n">
-        <v>356.1988980064772</v>
+        <v>356.1988980064773</v>
       </c>
       <c r="E17" t="n">
-        <v>273.6489636619658</v>
+        <v>273.6489636619663</v>
       </c>
       <c r="F17" t="n">
-        <v>165.9013771260911</v>
+        <v>165.901377126092</v>
       </c>
       <c r="G17" t="n">
-        <v>50.16856350228308</v>
+        <v>50.1685635022831</v>
       </c>
       <c r="H17" t="n">
         <v>15.89590717384415</v>
@@ -5513,25 +5513,25 @@
         <v>15.89590717384415</v>
       </c>
       <c r="J17" t="n">
-        <v>47.86977448817003</v>
+        <v>22.98727760833378</v>
       </c>
       <c r="K17" t="n">
-        <v>216.5351174699659</v>
+        <v>191.6526205901297</v>
       </c>
       <c r="L17" t="n">
-        <v>413.2469687462873</v>
+        <v>191.6526205901297</v>
       </c>
       <c r="M17" t="n">
-        <v>434.2070824514556</v>
+        <v>388.3644718664511</v>
       </c>
       <c r="N17" t="n">
-        <v>630.918933727777</v>
+        <v>585.0763231427725</v>
       </c>
       <c r="O17" t="n">
-        <v>630.918933727777</v>
+        <v>585.0763231427725</v>
       </c>
       <c r="P17" t="n">
-        <v>794.7953586922076</v>
+        <v>748.9527481072031</v>
       </c>
       <c r="Q17" t="n">
         <v>794.7953586922076</v>
@@ -5549,16 +5549,16 @@
         <v>794.7953586922076</v>
       </c>
       <c r="V17" t="n">
-        <v>766.9707896023699</v>
+        <v>766.9707896023692</v>
       </c>
       <c r="W17" t="n">
-        <v>717.4404525859886</v>
+        <v>717.4404525859882</v>
       </c>
       <c r="X17" t="n">
-        <v>647.2130125786416</v>
+        <v>647.2130125786413</v>
       </c>
       <c r="Y17" t="n">
-        <v>560.3119988565627</v>
+        <v>560.3119988565625</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>192.6776627132625</v>
+        <v>190.3489364549712</v>
       </c>
       <c r="C18" t="n">
-        <v>18.22463343213548</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="D18" t="n">
-        <v>18.22463343213548</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="E18" t="n">
-        <v>18.22463343213548</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="F18" t="n">
-        <v>18.22463343213548</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="G18" t="n">
         <v>15.89590717384415</v>
@@ -5592,25 +5592,25 @@
         <v>15.89590717384415</v>
       </c>
       <c r="J18" t="n">
-        <v>41.24594382033391</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="K18" t="n">
-        <v>211.1940372584257</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="L18" t="n">
-        <v>407.9058885347471</v>
+        <v>212.6077584501656</v>
       </c>
       <c r="M18" t="n">
-        <v>604.6177398110685</v>
+        <v>409.319609726487</v>
       </c>
       <c r="N18" t="n">
-        <v>604.6177398110685</v>
+        <v>606.0314610028083</v>
       </c>
       <c r="O18" t="n">
-        <v>604.6177398110685</v>
+        <v>606.0314610028083</v>
       </c>
       <c r="P18" t="n">
-        <v>690.1517879427123</v>
+        <v>794.7953586922076</v>
       </c>
       <c r="Q18" t="n">
         <v>794.7953586922076</v>
@@ -5619,25 +5619,25 @@
         <v>794.7953586922076</v>
       </c>
       <c r="S18" t="n">
-        <v>794.7953586922076</v>
+        <v>626.6113341916492</v>
       </c>
       <c r="T18" t="n">
-        <v>794.7953586922076</v>
+        <v>425.9054355320009</v>
       </c>
       <c r="U18" t="n">
-        <v>594.0894600325593</v>
+        <v>225.1995368723525</v>
       </c>
       <c r="V18" t="n">
-        <v>594.0894600325593</v>
+        <v>190.3489364549712</v>
       </c>
       <c r="W18" t="n">
-        <v>594.0894600325593</v>
+        <v>190.3489364549712</v>
       </c>
       <c r="X18" t="n">
-        <v>393.3835613729109</v>
+        <v>190.3489364549712</v>
       </c>
       <c r="Y18" t="n">
-        <v>192.6776627132625</v>
+        <v>190.3489364549712</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>319.4411870795271</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="C19" t="n">
-        <v>319.4411870795271</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="D19" t="n">
-        <v>169.3245476671914</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="E19" t="n">
-        <v>169.3245476671914</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="F19" t="n">
-        <v>22.434600169281</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="G19" t="n">
-        <v>22.434600169281</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="H19" t="n">
-        <v>22.434600169281</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="I19" t="n">
-        <v>22.434600169281</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="J19" t="n">
         <v>15.89590717384415</v>
@@ -5692,31 +5692,31 @@
         <v>319.4411870795271</v>
       </c>
       <c r="Q19" t="n">
-        <v>319.4411870795271</v>
+        <v>252.1879277620847</v>
       </c>
       <c r="R19" t="n">
-        <v>319.4411870795271</v>
+        <v>216.6018058334926</v>
       </c>
       <c r="S19" t="n">
-        <v>319.4411870795271</v>
+        <v>216.6018058334926</v>
       </c>
       <c r="T19" t="n">
-        <v>319.4411870795271</v>
+        <v>216.6018058334926</v>
       </c>
       <c r="U19" t="n">
-        <v>319.4411870795271</v>
+        <v>216.6018058334926</v>
       </c>
       <c r="V19" t="n">
-        <v>319.4411870795271</v>
+        <v>216.6018058334926</v>
       </c>
       <c r="W19" t="n">
-        <v>319.4411870795271</v>
+        <v>216.6018058334926</v>
       </c>
       <c r="X19" t="n">
-        <v>319.4411870795271</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="Y19" t="n">
-        <v>319.4411870795271</v>
+        <v>15.89590717384415</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>476.9504770461735</v>
+        <v>476.950477046174</v>
       </c>
       <c r="C20" t="n">
-        <v>411.2262783594948</v>
+        <v>411.2262783594954</v>
       </c>
       <c r="D20" t="n">
-        <v>356.1988980064772</v>
+        <v>356.198898006478</v>
       </c>
       <c r="E20" t="n">
-        <v>273.6489636619658</v>
+        <v>273.6489636619666</v>
       </c>
       <c r="F20" t="n">
-        <v>165.9013771260911</v>
+        <v>165.9013771260913</v>
       </c>
       <c r="G20" t="n">
         <v>50.1685635022831</v>
@@ -5750,25 +5750,25 @@
         <v>15.89590717384415</v>
       </c>
       <c r="J20" t="n">
-        <v>47.86977448817003</v>
+        <v>47.86977448817004</v>
       </c>
       <c r="K20" t="n">
         <v>216.5351174699659</v>
       </c>
       <c r="L20" t="n">
-        <v>216.5351174699659</v>
+        <v>237.4952311751342</v>
       </c>
       <c r="M20" t="n">
-        <v>413.2469687462873</v>
+        <v>237.4952311751342</v>
       </c>
       <c r="N20" t="n">
-        <v>552.2408968308819</v>
+        <v>434.2070824514556</v>
       </c>
       <c r="O20" t="n">
-        <v>748.9527481072032</v>
+        <v>630.918933727777</v>
       </c>
       <c r="P20" t="n">
-        <v>748.9527481072032</v>
+        <v>794.7953586922076</v>
       </c>
       <c r="Q20" t="n">
         <v>794.7953586922076</v>
@@ -5786,16 +5786,16 @@
         <v>794.7953586922076</v>
       </c>
       <c r="V20" t="n">
-        <v>766.9707896023697</v>
+        <v>766.9707896023699</v>
       </c>
       <c r="W20" t="n">
-        <v>717.4404525859884</v>
+        <v>717.4404525859887</v>
       </c>
       <c r="X20" t="n">
-        <v>647.2130125786414</v>
+        <v>647.2130125786418</v>
       </c>
       <c r="Y20" t="n">
-        <v>560.3119988565625</v>
+        <v>560.3119988565629</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>609.0514086026867</v>
+        <v>24.49363821270407</v>
       </c>
       <c r="C21" t="n">
-        <v>609.0514086026867</v>
+        <v>24.49363821270407</v>
       </c>
       <c r="D21" t="n">
-        <v>460.1169989414355</v>
+        <v>24.49363821270407</v>
       </c>
       <c r="E21" t="n">
-        <v>300.87954393598</v>
+        <v>24.49363821270407</v>
       </c>
       <c r="F21" t="n">
-        <v>154.344985962865</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="G21" t="n">
         <v>15.89590717384415</v>
@@ -5829,19 +5829,19 @@
         <v>15.89590717384415</v>
       </c>
       <c r="J21" t="n">
-        <v>15.89590717384415</v>
+        <v>41.24594382033391</v>
       </c>
       <c r="K21" t="n">
-        <v>15.89590717384415</v>
+        <v>211.1940372584257</v>
       </c>
       <c r="L21" t="n">
-        <v>212.6077584501656</v>
+        <v>407.9058885347471</v>
       </c>
       <c r="M21" t="n">
-        <v>409.319609726487</v>
+        <v>493.4399366663909</v>
       </c>
       <c r="N21" t="n">
-        <v>409.319609726487</v>
+        <v>493.4399366663909</v>
       </c>
       <c r="O21" t="n">
         <v>493.4399366663909</v>
@@ -5856,25 +5856,25 @@
         <v>794.7953586922076</v>
       </c>
       <c r="S21" t="n">
-        <v>777.2667456227548</v>
+        <v>626.6113341916492</v>
       </c>
       <c r="T21" t="n">
-        <v>777.2667456227548</v>
+        <v>425.9054355320009</v>
       </c>
       <c r="U21" t="n">
-        <v>777.2667456227548</v>
+        <v>225.1995368723525</v>
       </c>
       <c r="V21" t="n">
-        <v>777.2667456227548</v>
+        <v>24.49363821270407</v>
       </c>
       <c r="W21" t="n">
-        <v>777.2667456227548</v>
+        <v>24.49363821270407</v>
       </c>
       <c r="X21" t="n">
-        <v>777.2667456227548</v>
+        <v>24.49363821270407</v>
       </c>
       <c r="Y21" t="n">
-        <v>777.2667456227548</v>
+        <v>24.49363821270407</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>319.4411870795271</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="C22" t="n">
-        <v>319.4411870795271</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="D22" t="n">
-        <v>319.4411870795271</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="E22" t="n">
-        <v>319.4411870795271</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="F22" t="n">
-        <v>172.5512395816167</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="G22" t="n">
         <v>15.89590717384415</v>
@@ -5941,19 +5941,19 @@
         <v>319.4411870795271</v>
       </c>
       <c r="U22" t="n">
-        <v>319.4411870795271</v>
+        <v>118.7352884198787</v>
       </c>
       <c r="V22" t="n">
-        <v>319.4411870795271</v>
+        <v>118.7352884198787</v>
       </c>
       <c r="W22" t="n">
-        <v>319.4411870795271</v>
+        <v>118.7352884198787</v>
       </c>
       <c r="X22" t="n">
-        <v>319.4411870795271</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="Y22" t="n">
-        <v>319.4411870795271</v>
+        <v>15.89590717384415</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>476.950477046174</v>
+        <v>476.9504770461735</v>
       </c>
       <c r="C23" t="n">
-        <v>411.2262783594954</v>
+        <v>411.2262783594947</v>
       </c>
       <c r="D23" t="n">
-        <v>356.198898006478</v>
+        <v>356.1988980064773</v>
       </c>
       <c r="E23" t="n">
-        <v>273.6489636619666</v>
+        <v>273.6489636619663</v>
       </c>
       <c r="F23" t="n">
-        <v>165.9013771260919</v>
+        <v>165.901377126092</v>
       </c>
       <c r="G23" t="n">
         <v>50.1685635022831</v>
@@ -5987,25 +5987,25 @@
         <v>15.89590717384415</v>
       </c>
       <c r="J23" t="n">
-        <v>47.86977448817003</v>
+        <v>47.86977448817004</v>
       </c>
       <c r="K23" t="n">
         <v>216.5351174699659</v>
       </c>
       <c r="L23" t="n">
-        <v>216.5351174699659</v>
+        <v>413.2469687462873</v>
       </c>
       <c r="M23" t="n">
-        <v>216.5351174699659</v>
+        <v>413.2469687462873</v>
       </c>
       <c r="N23" t="n">
-        <v>388.3644718664512</v>
+        <v>609.9588200226087</v>
       </c>
       <c r="O23" t="n">
-        <v>585.0763231427726</v>
+        <v>748.9527481072031</v>
       </c>
       <c r="P23" t="n">
-        <v>748.9527481072032</v>
+        <v>748.9527481072031</v>
       </c>
       <c r="Q23" t="n">
         <v>794.7953586922076</v>
@@ -6023,16 +6023,16 @@
         <v>794.7953586922076</v>
       </c>
       <c r="V23" t="n">
-        <v>766.9707896023699</v>
+        <v>766.9707896023692</v>
       </c>
       <c r="W23" t="n">
-        <v>717.4404525859887</v>
+        <v>717.4404525859882</v>
       </c>
       <c r="X23" t="n">
-        <v>647.2130125786418</v>
+        <v>647.2130125786413</v>
       </c>
       <c r="Y23" t="n">
-        <v>560.3119988565629</v>
+        <v>560.3119988565625</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>275.4783731483195</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="C24" t="n">
-        <v>275.4783731483195</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="D24" t="n">
-        <v>126.5439634870682</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="E24" t="n">
-        <v>126.5439634870682</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="F24" t="n">
-        <v>126.5439634870682</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="G24" t="n">
-        <v>126.5439634870682</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="H24" t="n">
         <v>15.89590717384415</v>
@@ -6066,16 +6066,16 @@
         <v>15.89590717384415</v>
       </c>
       <c r="J24" t="n">
-        <v>41.24594382033391</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="K24" t="n">
-        <v>211.1940372584257</v>
+        <v>100.0162341137481</v>
       </c>
       <c r="L24" t="n">
-        <v>407.9058885347471</v>
+        <v>296.7280853900695</v>
       </c>
       <c r="M24" t="n">
-        <v>604.6177398110685</v>
+        <v>493.4399366663909</v>
       </c>
       <c r="N24" t="n">
         <v>690.1517879427123</v>
@@ -6090,28 +6090,28 @@
         <v>794.7953586922076</v>
       </c>
       <c r="R24" t="n">
-        <v>794.7953586922076</v>
+        <v>711.1188348201648</v>
       </c>
       <c r="S24" t="n">
-        <v>794.7953586922076</v>
+        <v>542.9348103196064</v>
       </c>
       <c r="T24" t="n">
-        <v>794.7953586922076</v>
+        <v>342.228911659958</v>
       </c>
       <c r="U24" t="n">
-        <v>794.7953586922076</v>
+        <v>342.228911659958</v>
       </c>
       <c r="V24" t="n">
-        <v>594.0894600325593</v>
+        <v>216.6018058334926</v>
       </c>
       <c r="W24" t="n">
-        <v>443.6937101683876</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="X24" t="n">
-        <v>443.6937101683876</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="Y24" t="n">
-        <v>443.6937101683876</v>
+        <v>15.89590717384415</v>
       </c>
     </row>
     <row r="25">
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>319.4411870795271</v>
+        <v>51.48202910243626</v>
       </c>
       <c r="C25" t="n">
-        <v>150.5050041516202</v>
+        <v>51.48202910243626</v>
       </c>
       <c r="D25" t="n">
         <v>15.89590717384415</v>
@@ -6166,31 +6166,31 @@
         <v>319.4411870795271</v>
       </c>
       <c r="Q25" t="n">
-        <v>319.4411870795271</v>
+        <v>252.1879277620847</v>
       </c>
       <c r="R25" t="n">
-        <v>319.4411870795271</v>
+        <v>252.1879277620847</v>
       </c>
       <c r="S25" t="n">
-        <v>319.4411870795271</v>
+        <v>252.1879277620847</v>
       </c>
       <c r="T25" t="n">
-        <v>319.4411870795271</v>
+        <v>252.1879277620847</v>
       </c>
       <c r="U25" t="n">
-        <v>319.4411870795271</v>
+        <v>51.48202910243626</v>
       </c>
       <c r="V25" t="n">
-        <v>319.4411870795271</v>
+        <v>51.48202910243626</v>
       </c>
       <c r="W25" t="n">
-        <v>319.4411870795271</v>
+        <v>51.48202910243626</v>
       </c>
       <c r="X25" t="n">
-        <v>319.4411870795271</v>
+        <v>51.48202910243626</v>
       </c>
       <c r="Y25" t="n">
-        <v>319.4411870795271</v>
+        <v>51.48202910243626</v>
       </c>
     </row>
     <row r="26">
@@ -6203,22 +6203,22 @@
         <v>1474.852168841945</v>
       </c>
       <c r="C26" t="n">
-        <v>1256.396813742802</v>
+        <v>1256.396813742803</v>
       </c>
       <c r="D26" t="n">
-        <v>1048.638276977321</v>
+        <v>1048.638276977322</v>
       </c>
       <c r="E26" t="n">
-        <v>813.3571862203457</v>
+        <v>813.3571862203464</v>
       </c>
       <c r="F26" t="n">
-        <v>552.8784432720074</v>
+        <v>552.8784432720079</v>
       </c>
       <c r="G26" t="n">
-        <v>284.4144732357354</v>
+        <v>284.4144732357358</v>
       </c>
       <c r="H26" t="n">
-        <v>97.41066049483349</v>
+        <v>97.41066049483348</v>
       </c>
       <c r="I26" t="n">
         <v>55.6169964674375</v>
@@ -6236,13 +6236,13 @@
         <v>1415.424320284889</v>
       </c>
       <c r="N26" t="n">
-        <v>1860.880600751947</v>
+        <v>1860.880600751948</v>
       </c>
       <c r="O26" t="n">
         <v>2244.545302124367</v>
       </c>
       <c r="P26" t="n">
-        <v>2555.933796409425</v>
+        <v>2555.933796409426</v>
       </c>
       <c r="Q26" t="n">
         <v>2749.288476315058</v>
@@ -6257,7 +6257,7 @@
         <v>2659.688041972995</v>
       </c>
       <c r="U26" t="n">
-        <v>2556.352832550297</v>
+        <v>2556.352832550298</v>
       </c>
       <c r="V26" t="n">
         <v>2375.797107047996</v>
@@ -6269,7 +6269,7 @@
         <v>1950.57701719934</v>
       </c>
       <c r="Y26" t="n">
-        <v>1710.944847064797</v>
+        <v>1710.944847064798</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>672.7183653361379</v>
+        <v>247.6171822171964</v>
       </c>
       <c r="C27" t="n">
-        <v>498.2653360550109</v>
+        <v>214.854451472893</v>
       </c>
       <c r="D27" t="n">
-        <v>349.3309263937597</v>
+        <v>214.854451472893</v>
       </c>
       <c r="E27" t="n">
-        <v>340.6006332295734</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="F27" t="n">
-        <v>194.0660752564583</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="G27" t="n">
         <v>55.6169964674375</v>
@@ -6303,7 +6303,7 @@
         <v>55.6169964674375</v>
       </c>
       <c r="J27" t="n">
-        <v>80.96703311392726</v>
+        <v>80.96703311392727</v>
       </c>
       <c r="K27" t="n">
         <v>250.9151265520191</v>
@@ -6327,28 +6327,28 @@
         <v>2001.950371853512</v>
       </c>
       <c r="R27" t="n">
-        <v>2001.950371853512</v>
+        <v>1918.273847981469</v>
       </c>
       <c r="S27" t="n">
-        <v>1833.766347352953</v>
+        <v>1750.08982348091</v>
       </c>
       <c r="T27" t="n">
-        <v>1632.715389340957</v>
+        <v>1549.038865468914</v>
       </c>
       <c r="U27" t="n">
-        <v>1404.510307039739</v>
+        <v>1320.833783167695</v>
       </c>
       <c r="V27" t="n">
-        <v>1169.358198807996</v>
+        <v>1085.681674935953</v>
       </c>
       <c r="W27" t="n">
-        <v>915.1208420797943</v>
+        <v>831.4443182077512</v>
       </c>
       <c r="X27" t="n">
-        <v>857.7765037155307</v>
+        <v>623.5928180022183</v>
       </c>
       <c r="Y27" t="n">
-        <v>800.523366791846</v>
+        <v>415.8325192372644</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>103.8663305314049</v>
+        <v>97.77865245295446</v>
       </c>
       <c r="C28" t="n">
-        <v>85.43730944476722</v>
+        <v>79.34963136631676</v>
       </c>
       <c r="D28" t="n">
-        <v>85.82006047736493</v>
+        <v>79.73238239891447</v>
       </c>
       <c r="E28" t="n">
-        <v>85.82006047736493</v>
+        <v>82.27482869943893</v>
       </c>
       <c r="F28" t="n">
         <v>85.82006047736493</v>
@@ -6382,52 +6382,52 @@
         <v>55.6169964674375</v>
       </c>
       <c r="J28" t="n">
-        <v>55.6169964674375</v>
+        <v>127.0709793341875</v>
       </c>
       <c r="K28" t="n">
-        <v>91.66621683668183</v>
+        <v>131.9210158831158</v>
       </c>
       <c r="L28" t="n">
-        <v>300.9110977337596</v>
+        <v>193.6538274595656</v>
       </c>
       <c r="M28" t="n">
-        <v>523.9008843773868</v>
+        <v>269.1315447825648</v>
       </c>
       <c r="N28" t="n">
-        <v>603.0185267052914</v>
+        <v>495.7612564310974</v>
       </c>
       <c r="O28" t="n">
-        <v>807.5922487627337</v>
+        <v>700.3349784885397</v>
       </c>
       <c r="P28" t="n">
-        <v>832.8976681553203</v>
+        <v>745.2128402132673</v>
       </c>
       <c r="Q28" t="n">
-        <v>832.8976681553203</v>
+        <v>826.8099900768699</v>
       </c>
       <c r="R28" t="n">
-        <v>814.9413178333265</v>
+        <v>808.8536397548761</v>
       </c>
       <c r="S28" t="n">
-        <v>743.2855299366917</v>
+        <v>737.1978518582413</v>
       </c>
       <c r="T28" t="n">
-        <v>664.5538693493527</v>
+        <v>658.4661912709023</v>
       </c>
       <c r="U28" t="n">
-        <v>525.8627744396935</v>
+        <v>519.7750963612431</v>
       </c>
       <c r="V28" t="n">
-        <v>421.6854480750758</v>
+        <v>415.5977699966254</v>
       </c>
       <c r="W28" t="n">
-        <v>282.7754398793844</v>
+        <v>276.687761800934</v>
       </c>
       <c r="X28" t="n">
-        <v>205.2930508226363</v>
+        <v>199.2053727441859</v>
       </c>
       <c r="Y28" t="n">
-        <v>135.0076335203754</v>
+        <v>128.919955441925</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>1474.852168841945</v>
       </c>
       <c r="C29" t="n">
-        <v>1256.396813742802</v>
+        <v>1256.396813742803</v>
       </c>
       <c r="D29" t="n">
         <v>1048.638276977321</v>
@@ -6452,10 +6452,10 @@
         <v>552.8784432720079</v>
       </c>
       <c r="G29" t="n">
-        <v>284.414473235736</v>
+        <v>284.4144732357358</v>
       </c>
       <c r="H29" t="n">
-        <v>97.41066049483346</v>
+        <v>97.41066049483349</v>
       </c>
       <c r="I29" t="n">
         <v>55.6169964674375</v>
@@ -6464,16 +6464,16 @@
         <v>235.1029331023913</v>
       </c>
       <c r="K29" t="n">
-        <v>551.2803454048149</v>
+        <v>551.2803454048152</v>
       </c>
       <c r="L29" t="n">
-        <v>960.313314646427</v>
+        <v>960.3133146464273</v>
       </c>
       <c r="M29" t="n">
         <v>1415.424320284889</v>
       </c>
       <c r="N29" t="n">
-        <v>1860.880600751947</v>
+        <v>1860.880600751948</v>
       </c>
       <c r="O29" t="n">
         <v>2244.545302124367</v>
@@ -6491,22 +6491,22 @@
         <v>2732.225106987912</v>
       </c>
       <c r="T29" t="n">
-        <v>2659.688041972995</v>
+        <v>2659.688041972994</v>
       </c>
       <c r="U29" t="n">
-        <v>2556.352832550297</v>
+        <v>2556.352832550298</v>
       </c>
       <c r="V29" t="n">
-        <v>2375.797107047995</v>
+        <v>2375.797107047996</v>
       </c>
       <c r="W29" t="n">
-        <v>2173.53561361915</v>
+        <v>2173.535613619151</v>
       </c>
       <c r="X29" t="n">
         <v>1950.57701719934</v>
       </c>
       <c r="Y29" t="n">
-        <v>1710.944847064797</v>
+        <v>1710.944847064798</v>
       </c>
     </row>
     <row r="30">
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>757.2901113618071</v>
+        <v>398.1243440584656</v>
       </c>
       <c r="C30" t="n">
-        <v>582.8370820806801</v>
+        <v>223.6713147773386</v>
       </c>
       <c r="D30" t="n">
-        <v>433.9026724194288</v>
+        <v>74.73690511608734</v>
       </c>
       <c r="E30" t="n">
-        <v>274.6652174139733</v>
+        <v>66.00661195190105</v>
       </c>
       <c r="F30" t="n">
-        <v>274.6652174139733</v>
+        <v>66.00661195190105</v>
       </c>
       <c r="G30" t="n">
-        <v>136.2161386249525</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="H30" t="n">
-        <v>136.2161386249525</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="I30" t="n">
         <v>55.6169964674375</v>
       </c>
       <c r="J30" t="n">
-        <v>80.96703311392726</v>
+        <v>80.96703311392727</v>
       </c>
       <c r="K30" t="n">
         <v>250.9151265520191</v>
@@ -6564,28 +6564,28 @@
         <v>2001.950371853512</v>
       </c>
       <c r="R30" t="n">
-        <v>2001.950371853512</v>
+        <v>1918.273847981469</v>
       </c>
       <c r="S30" t="n">
-        <v>1984.273509194222</v>
+        <v>1750.08982348091</v>
       </c>
       <c r="T30" t="n">
-        <v>1783.222551182226</v>
+        <v>1549.038865468914</v>
       </c>
       <c r="U30" t="n">
-        <v>1555.017468881008</v>
+        <v>1320.833783167695</v>
       </c>
       <c r="V30" t="n">
-        <v>1470.372522490534</v>
+        <v>1085.681674935953</v>
       </c>
       <c r="W30" t="n">
-        <v>1216.135165762332</v>
+        <v>831.4443182077512</v>
       </c>
       <c r="X30" t="n">
-        <v>1008.2836655568</v>
+        <v>623.5928180022183</v>
       </c>
       <c r="Y30" t="n">
-        <v>925.5054483818751</v>
+        <v>566.3396810785337</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.16140348555203</v>
+        <v>97.77865245295446</v>
       </c>
       <c r="C31" t="n">
-        <v>79.73238239891435</v>
+        <v>79.34963136631676</v>
       </c>
       <c r="D31" t="n">
-        <v>79.73238239891435</v>
+        <v>79.73238239891447</v>
       </c>
       <c r="E31" t="n">
-        <v>82.27482869943884</v>
+        <v>82.27482869943893</v>
       </c>
       <c r="F31" t="n">
-        <v>85.82006047736488</v>
+        <v>85.82006047736493</v>
       </c>
       <c r="G31" t="n">
-        <v>66.87557128953443</v>
+        <v>66.87557128953446</v>
       </c>
       <c r="H31" t="n">
         <v>55.6169964674375</v>
@@ -6619,52 +6619,52 @@
         <v>55.6169964674375</v>
       </c>
       <c r="J31" t="n">
-        <v>127.0709793341875</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="K31" t="n">
-        <v>279.4330852037438</v>
+        <v>60.46703301636578</v>
       </c>
       <c r="L31" t="n">
-        <v>341.1658967801935</v>
+        <v>269.7119139134435</v>
       </c>
       <c r="M31" t="n">
-        <v>416.6436141031928</v>
+        <v>492.7017005570707</v>
       </c>
       <c r="N31" t="n">
-        <v>495.7612564310974</v>
+        <v>596.930848626841</v>
       </c>
       <c r="O31" t="n">
-        <v>654.3752523962524</v>
+        <v>801.5045706842833</v>
       </c>
       <c r="P31" t="n">
-        <v>827.1927411094671</v>
+        <v>826.8099900768699</v>
       </c>
       <c r="Q31" t="n">
-        <v>827.1927411094671</v>
+        <v>826.8099900768699</v>
       </c>
       <c r="R31" t="n">
-        <v>809.2363907874733</v>
+        <v>808.8536397548761</v>
       </c>
       <c r="S31" t="n">
-        <v>737.5806028908385</v>
+        <v>737.1978518582413</v>
       </c>
       <c r="T31" t="n">
-        <v>658.8489423034996</v>
+        <v>658.4661912709023</v>
       </c>
       <c r="U31" t="n">
-        <v>520.1578473938405</v>
+        <v>519.7750963612431</v>
       </c>
       <c r="V31" t="n">
-        <v>415.9805210292228</v>
+        <v>415.5977699966254</v>
       </c>
       <c r="W31" t="n">
-        <v>277.0705128335314</v>
+        <v>276.687761800934</v>
       </c>
       <c r="X31" t="n">
-        <v>199.5881237767834</v>
+        <v>199.2053727441859</v>
       </c>
       <c r="Y31" t="n">
-        <v>129.3027064745225</v>
+        <v>128.919955441925</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1474.852168841945</v>
+        <v>1474.852168841946</v>
       </c>
       <c r="C32" t="n">
-        <v>1256.396813742802</v>
+        <v>1256.396813742803</v>
       </c>
       <c r="D32" t="n">
-        <v>1048.638276977321</v>
+        <v>1048.638276977322</v>
       </c>
       <c r="E32" t="n">
-        <v>813.3571862203461</v>
+        <v>813.3571862203468</v>
       </c>
       <c r="F32" t="n">
-        <v>552.8784432720078</v>
+        <v>552.8784432720084</v>
       </c>
       <c r="G32" t="n">
-        <v>284.4144732357358</v>
+        <v>284.414473235736</v>
       </c>
       <c r="H32" t="n">
-        <v>97.41066049483379</v>
+        <v>97.41066049483346</v>
       </c>
       <c r="I32" t="n">
         <v>55.6169964674375</v>
       </c>
       <c r="J32" t="n">
-        <v>235.102933102391</v>
+        <v>235.1029331023914</v>
       </c>
       <c r="K32" t="n">
-        <v>551.2803454048151</v>
+        <v>551.2803454048153</v>
       </c>
       <c r="L32" t="n">
-        <v>960.3133146464273</v>
+        <v>960.3133146464274</v>
       </c>
       <c r="M32" t="n">
         <v>1415.424320284889</v>
@@ -6728,10 +6728,10 @@
         <v>2732.225106987912</v>
       </c>
       <c r="T32" t="n">
-        <v>2659.688041972994</v>
+        <v>2659.688041972995</v>
       </c>
       <c r="U32" t="n">
-        <v>2556.352832550297</v>
+        <v>2556.352832550298</v>
       </c>
       <c r="V32" t="n">
         <v>2375.797107047996</v>
@@ -6740,10 +6740,10 @@
         <v>2173.535613619151</v>
       </c>
       <c r="X32" t="n">
-        <v>1950.57701719934</v>
+        <v>1950.577017199341</v>
       </c>
       <c r="Y32" t="n">
-        <v>1710.944847064797</v>
+        <v>1710.944847064798</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>784.9391738293799</v>
+        <v>548.6315058997349</v>
       </c>
       <c r="C33" t="n">
-        <v>610.4861445482529</v>
+        <v>524.6856384598771</v>
       </c>
       <c r="D33" t="n">
-        <v>610.4861445482529</v>
+        <v>375.7512287986258</v>
       </c>
       <c r="E33" t="n">
-        <v>451.2486895427975</v>
+        <v>216.5137737931703</v>
       </c>
       <c r="F33" t="n">
-        <v>304.7141315696824</v>
+        <v>166.2650527806616</v>
       </c>
       <c r="G33" t="n">
         <v>166.2650527806616</v>
@@ -6777,7 +6777,7 @@
         <v>55.6169964674375</v>
       </c>
       <c r="J33" t="n">
-        <v>80.96703311392726</v>
+        <v>80.96703311392727</v>
       </c>
       <c r="K33" t="n">
         <v>250.9151265520191</v>
@@ -6801,28 +6801,28 @@
         <v>2001.950371853512</v>
       </c>
       <c r="R33" t="n">
-        <v>2001.950371853512</v>
+        <v>1918.273847981469</v>
       </c>
       <c r="S33" t="n">
-        <v>1835.890329569286</v>
+        <v>1750.08982348091</v>
       </c>
       <c r="T33" t="n">
-        <v>1634.83937155729</v>
+        <v>1549.038865468914</v>
       </c>
       <c r="U33" t="n">
-        <v>1406.634289256071</v>
+        <v>1320.833783167695</v>
       </c>
       <c r="V33" t="n">
-        <v>1321.989342865598</v>
+        <v>1085.681674935953</v>
       </c>
       <c r="W33" t="n">
-        <v>1067.751986137396</v>
+        <v>831.4443182077512</v>
       </c>
       <c r="X33" t="n">
-        <v>859.9004859318634</v>
+        <v>623.5928180022183</v>
       </c>
       <c r="Y33" t="n">
-        <v>802.6473490081787</v>
+        <v>566.3396810785337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>101.7066352634781</v>
+        <v>97.77865245295429</v>
       </c>
       <c r="C34" t="n">
-        <v>83.27761417684039</v>
+        <v>79.34963136631661</v>
       </c>
       <c r="D34" t="n">
-        <v>83.27761417684039</v>
+        <v>79.73238239891435</v>
       </c>
       <c r="E34" t="n">
-        <v>85.82006047736488</v>
+        <v>82.27482869943884</v>
       </c>
       <c r="F34" t="n">
         <v>85.82006047736488</v>
@@ -6859,49 +6859,49 @@
         <v>55.6169964674375</v>
       </c>
       <c r="K34" t="n">
-        <v>60.46703301636577</v>
+        <v>60.46703301636578</v>
       </c>
       <c r="L34" t="n">
-        <v>122.1998445928155</v>
+        <v>269.7119139134435</v>
       </c>
       <c r="M34" t="n">
-        <v>226.7170504682036</v>
+        <v>436.216056435333</v>
       </c>
       <c r="N34" t="n">
-        <v>453.3467621167362</v>
+        <v>515.3336987632376</v>
       </c>
       <c r="O34" t="n">
-        <v>657.9204841741786</v>
+        <v>719.90742082068</v>
       </c>
       <c r="P34" t="n">
-        <v>830.7379728873932</v>
+        <v>745.2128402132666</v>
       </c>
       <c r="Q34" t="n">
-        <v>830.7379728873932</v>
+        <v>826.8099900768692</v>
       </c>
       <c r="R34" t="n">
-        <v>812.7816225653994</v>
+        <v>808.8536397548754</v>
       </c>
       <c r="S34" t="n">
-        <v>741.1258346687646</v>
+        <v>737.1978518582407</v>
       </c>
       <c r="T34" t="n">
-        <v>662.3941740814256</v>
+        <v>658.4661912709018</v>
       </c>
       <c r="U34" t="n">
-        <v>523.7030791717665</v>
+        <v>519.7750963612427</v>
       </c>
       <c r="V34" t="n">
-        <v>419.5257528071489</v>
+        <v>415.5977699966251</v>
       </c>
       <c r="W34" t="n">
-        <v>280.6157446114575</v>
+        <v>276.6877618009337</v>
       </c>
       <c r="X34" t="n">
-        <v>203.1333555547094</v>
+        <v>199.2053727441856</v>
       </c>
       <c r="Y34" t="n">
-        <v>132.8479382524485</v>
+        <v>128.9199554419247</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6911,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1099.402103283627</v>
+        <v>1099.402103283626</v>
       </c>
       <c r="C35" t="n">
-        <v>933.9068305773308</v>
+        <v>933.9068305773303</v>
       </c>
       <c r="D35" t="n">
-        <v>779.108376204696</v>
+        <v>779.1083762046956</v>
       </c>
       <c r="E35" t="n">
-        <v>596.7873678405674</v>
+        <v>596.787367840567</v>
       </c>
       <c r="F35" t="n">
-        <v>389.2687072850756</v>
+        <v>389.2687072850752</v>
       </c>
       <c r="G35" t="n">
         <v>173.7648196416495</v>
       </c>
       <c r="H35" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I35" t="n">
-        <v>39.72108929359335</v>
+        <v>50.66529593357141</v>
       </c>
       <c r="J35" t="n">
-        <v>271.113202681776</v>
+        <v>82.6391632478973</v>
       </c>
       <c r="K35" t="n">
-        <v>473.7005036193362</v>
+        <v>251.3045062296932</v>
       </c>
       <c r="L35" t="n">
-        <v>735.2214035403204</v>
+        <v>712.2436522245342</v>
       </c>
       <c r="M35" t="n">
-        <v>1042.820339858154</v>
+        <v>1042.820339858155</v>
       </c>
       <c r="N35" t="n">
         <v>1340.764551004585</v>
@@ -6956,13 +6956,13 @@
         <v>1740.793608020806</v>
       </c>
       <c r="Q35" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="R35" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="S35" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="T35" t="n">
         <v>1966.477482057597</v>
@@ -6974,13 +6974,13 @@
         <v>1788.506711918291</v>
       </c>
       <c r="W35" t="n">
-        <v>1639.205300882293</v>
+        <v>1639.205300882292</v>
       </c>
       <c r="X35" t="n">
-        <v>1469.206786855329</v>
+        <v>1469.206786855328</v>
       </c>
       <c r="Y35" t="n">
-        <v>1282.534699113633</v>
+        <v>1282.534699113632</v>
       </c>
     </row>
     <row r="36">
@@ -6990,43 +6990,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>684.6327814279498</v>
+        <v>363.1085282359717</v>
       </c>
       <c r="C36" t="n">
-        <v>510.1797521468228</v>
+        <v>188.6554989548446</v>
       </c>
       <c r="D36" t="n">
-        <v>361.2453424855715</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="E36" t="n">
-        <v>361.2453424855715</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="F36" t="n">
-        <v>214.7107845124565</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="G36" t="n">
-        <v>76.26170572343568</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="H36" t="n">
-        <v>76.26170572343568</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I36" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="J36" t="n">
-        <v>65.07112594008311</v>
+        <v>65.07112594008345</v>
       </c>
       <c r="K36" t="n">
-        <v>235.0192193781749</v>
+        <v>235.0192193781752</v>
       </c>
       <c r="L36" t="n">
-        <v>524.939800189879</v>
+        <v>524.9398001898793</v>
       </c>
       <c r="M36" t="n">
-        <v>915.2426649670831</v>
+        <v>915.2426649670836</v>
       </c>
       <c r="N36" t="n">
-        <v>1331.582698579976</v>
+        <v>1331.582698579977</v>
       </c>
       <c r="O36" t="n">
         <v>1646.036812456933</v>
@@ -7035,31 +7035,31 @@
         <v>1881.410893930172</v>
       </c>
       <c r="Q36" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="R36" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="S36" t="n">
-        <v>1986.054464679667</v>
+        <v>1817.870440179109</v>
       </c>
       <c r="T36" t="n">
-        <v>1986.054464679667</v>
+        <v>1616.819482167113</v>
       </c>
       <c r="U36" t="n">
-        <v>1757.849382378449</v>
+        <v>1388.614399865894</v>
       </c>
       <c r="V36" t="n">
-        <v>1522.697274146706</v>
+        <v>1153.462291634152</v>
       </c>
       <c r="W36" t="n">
-        <v>1268.459917418505</v>
+        <v>899.2249349059502</v>
       </c>
       <c r="X36" t="n">
-        <v>1060.608417212972</v>
+        <v>739.0841640209935</v>
       </c>
       <c r="Y36" t="n">
-        <v>852.8481184480179</v>
+        <v>531.3238652560397</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="C37" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="D37" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="E37" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="F37" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="G37" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="H37" t="n">
-        <v>45.38891695093596</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I37" t="n">
-        <v>45.38891695093596</v>
+        <v>45.38891695093593</v>
       </c>
       <c r="J37" t="n">
-        <v>45.38891695093596</v>
+        <v>45.38891695093593</v>
       </c>
       <c r="K37" t="n">
-        <v>50.23895349986422</v>
+        <v>50.2389534998642</v>
       </c>
       <c r="L37" t="n">
         <v>111.971765076314</v>
@@ -7135,10 +7135,10 @@
         <v>81.56873086690939</v>
       </c>
       <c r="X37" t="n">
-        <v>57.04642420300775</v>
+        <v>57.04642420300776</v>
       </c>
       <c r="Y37" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1099.402103283626</v>
+        <v>1099.402103283627</v>
       </c>
       <c r="C38" t="n">
-        <v>933.9068305773299</v>
+        <v>933.9068305773308</v>
       </c>
       <c r="D38" t="n">
-        <v>779.1083762046951</v>
+        <v>779.108376204696</v>
       </c>
       <c r="E38" t="n">
-        <v>596.7873678405665</v>
+        <v>596.7873678405675</v>
       </c>
       <c r="F38" t="n">
-        <v>389.2687072850747</v>
+        <v>389.2687072850757</v>
       </c>
       <c r="G38" t="n">
         <v>173.7648196416495</v>
       </c>
       <c r="H38" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I38" t="n">
-        <v>39.72108929359335</v>
+        <v>50.66529593357144</v>
       </c>
       <c r="J38" t="n">
-        <v>217.3185446021874</v>
+        <v>221.5676368274943</v>
       </c>
       <c r="K38" t="n">
-        <v>385.9838875839833</v>
+        <v>390.2329798092902</v>
       </c>
       <c r="L38" t="n">
-        <v>647.5047875049675</v>
+        <v>651.7538797302743</v>
       </c>
       <c r="M38" t="n">
-        <v>955.1037238228014</v>
+        <v>959.3528160481083</v>
       </c>
       <c r="N38" t="n">
-        <v>1253.047934969232</v>
+        <v>1257.297027194539</v>
       </c>
       <c r="O38" t="n">
-        <v>1489.200567021023</v>
+        <v>1493.44965924633</v>
       </c>
       <c r="P38" t="n">
-        <v>1852.49523805931</v>
+        <v>1657.32608421076</v>
       </c>
       <c r="Q38" t="n">
-        <v>1898.337848644315</v>
+        <v>1902.586940869621</v>
       </c>
       <c r="R38" t="n">
-        <v>1981.805372454361</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="S38" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="T38" t="n">
-        <v>1966.477482057596</v>
+        <v>1966.477482057597</v>
       </c>
       <c r="U38" t="n">
-        <v>1916.102355027745</v>
+        <v>1916.102355027746</v>
       </c>
       <c r="V38" t="n">
-        <v>1788.50671191829</v>
+        <v>1788.506711918291</v>
       </c>
       <c r="W38" t="n">
-        <v>1639.205300882292</v>
+        <v>1639.205300882293</v>
       </c>
       <c r="X38" t="n">
-        <v>1469.206786855328</v>
+        <v>1469.206786855329</v>
       </c>
       <c r="Y38" t="n">
-        <v>1282.534699113632</v>
+        <v>1282.534699113633</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>511.8606523691967</v>
+        <v>345.4931022721639</v>
       </c>
       <c r="C39" t="n">
-        <v>337.4076230880697</v>
+        <v>345.4931022721639</v>
       </c>
       <c r="D39" t="n">
-        <v>337.4076230880697</v>
+        <v>345.4931022721639</v>
       </c>
       <c r="E39" t="n">
-        <v>178.1701680826142</v>
+        <v>186.2556472667084</v>
       </c>
       <c r="F39" t="n">
-        <v>178.1701680826142</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="G39" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="H39" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I39" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="J39" t="n">
-        <v>65.07112594008311</v>
+        <v>65.07112594008312</v>
       </c>
       <c r="K39" t="n">
-        <v>235.0192193781749</v>
+        <v>235.0192193781754</v>
       </c>
       <c r="L39" t="n">
-        <v>524.939800189879</v>
+        <v>524.9398001898794</v>
       </c>
       <c r="M39" t="n">
         <v>915.2426649670836</v>
@@ -7272,31 +7272,31 @@
         <v>1881.410893930172</v>
       </c>
       <c r="Q39" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="R39" t="n">
-        <v>1986.054464679667</v>
+        <v>1902.377940807625</v>
       </c>
       <c r="S39" t="n">
-        <v>1986.054464679667</v>
+        <v>1734.193916307067</v>
       </c>
       <c r="T39" t="n">
-        <v>1785.003506667671</v>
+        <v>1533.14295829507</v>
       </c>
       <c r="U39" t="n">
-        <v>1585.077253319696</v>
+        <v>1304.937875993852</v>
       </c>
       <c r="V39" t="n">
-        <v>1349.925145087953</v>
+        <v>1069.785767762109</v>
       </c>
       <c r="W39" t="n">
-        <v>1095.687788359751</v>
+        <v>815.5484110339075</v>
       </c>
       <c r="X39" t="n">
-        <v>887.8362881542187</v>
+        <v>607.6969108283747</v>
       </c>
       <c r="Y39" t="n">
-        <v>680.0759893892648</v>
+        <v>513.708439292232</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="C40" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="D40" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="E40" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="F40" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="G40" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="H40" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I40" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="J40" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="K40" t="n">
-        <v>44.57112584252162</v>
+        <v>44.57112584252163</v>
       </c>
       <c r="L40" t="n">
         <v>106.3039374189714</v>
@@ -7345,37 +7345,37 @@
         <v>260.8992970698753</v>
       </c>
       <c r="O40" t="n">
-        <v>317.9609498066897</v>
+        <v>317.9609498066898</v>
       </c>
       <c r="P40" t="n">
-        <v>348.9341968566189</v>
+        <v>343.2663691992764</v>
       </c>
       <c r="Q40" t="n">
-        <v>348.9341968566189</v>
+        <v>348.9341968566187</v>
       </c>
       <c r="R40" t="n">
-        <v>348.9341968566189</v>
+        <v>348.9341968566187</v>
       </c>
       <c r="S40" t="n">
-        <v>330.2384913528306</v>
+        <v>330.2384913528304</v>
       </c>
       <c r="T40" t="n">
-        <v>304.4669131583381</v>
+        <v>304.466913158338</v>
       </c>
       <c r="U40" t="n">
-        <v>218.7359006415255</v>
+        <v>218.7359006415254</v>
       </c>
       <c r="V40" t="n">
-        <v>167.5186566697543</v>
+        <v>167.5186566697542</v>
       </c>
       <c r="W40" t="n">
-        <v>81.56873086690939</v>
+        <v>81.56873086690933</v>
       </c>
       <c r="X40" t="n">
-        <v>57.04642420300775</v>
+        <v>57.04642420300773</v>
       </c>
       <c r="Y40" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
     </row>
     <row r="41">
@@ -7388,58 +7388,58 @@
         <v>1099.402103283626</v>
       </c>
       <c r="C41" t="n">
-        <v>933.9068305773301</v>
+        <v>933.9068305773299</v>
       </c>
       <c r="D41" t="n">
-        <v>779.1083762046952</v>
+        <v>779.1083762046951</v>
       </c>
       <c r="E41" t="n">
-        <v>596.7873678405666</v>
+        <v>596.7873678405667</v>
       </c>
       <c r="F41" t="n">
-        <v>389.2687072850747</v>
+        <v>389.268707285075</v>
       </c>
       <c r="G41" t="n">
-        <v>173.7648196416495</v>
+        <v>173.7648196416496</v>
       </c>
       <c r="H41" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I41" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="J41" t="n">
-        <v>71.69495660791924</v>
+        <v>71.69495660791925</v>
       </c>
       <c r="K41" t="n">
-        <v>240.3602995897151</v>
+        <v>240.3602995897152</v>
       </c>
       <c r="L41" t="n">
-        <v>701.2994455845561</v>
+        <v>501.8811995106993</v>
       </c>
       <c r="M41" t="n">
-        <v>1192.847925592774</v>
+        <v>959.3528160481083</v>
       </c>
       <c r="N41" t="n">
-        <v>1490.792136739204</v>
+        <v>1257.297027194539</v>
       </c>
       <c r="O41" t="n">
-        <v>1726.944768790995</v>
+        <v>1493.44965924633</v>
       </c>
       <c r="P41" t="n">
-        <v>1890.821193755426</v>
+        <v>1856.744330284617</v>
       </c>
       <c r="Q41" t="n">
-        <v>1986.054464679667</v>
+        <v>1902.586940869621</v>
       </c>
       <c r="R41" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="S41" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="T41" t="n">
-        <v>1966.477482057596</v>
+        <v>1966.477482057597</v>
       </c>
       <c r="U41" t="n">
         <v>1916.102355027746</v>
@@ -7464,13 +7464,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>499.1577553368562</v>
+        <v>722.3322873836269</v>
       </c>
       <c r="C42" t="n">
-        <v>324.7047260557292</v>
+        <v>547.8792581024999</v>
       </c>
       <c r="D42" t="n">
-        <v>324.7047260557292</v>
+        <v>483.9421810611847</v>
       </c>
       <c r="E42" t="n">
         <v>324.7047260557292</v>
@@ -7479,25 +7479,25 @@
         <v>178.1701680826142</v>
       </c>
       <c r="G42" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="H42" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I42" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="J42" t="n">
-        <v>65.07112594008311</v>
+        <v>65.07112594008312</v>
       </c>
       <c r="K42" t="n">
-        <v>235.0192193781749</v>
+        <v>235.019219378175</v>
       </c>
       <c r="L42" t="n">
-        <v>524.9398001898794</v>
+        <v>524.939800189879</v>
       </c>
       <c r="M42" t="n">
-        <v>915.2426649670836</v>
+        <v>915.2426649670831</v>
       </c>
       <c r="N42" t="n">
         <v>1331.582698579977</v>
@@ -7509,10 +7509,10 @@
         <v>1881.410893930172</v>
       </c>
       <c r="Q42" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="R42" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="S42" t="n">
         <v>1817.870440179109</v>
@@ -7524,16 +7524,16 @@
         <v>1388.614399865894</v>
       </c>
       <c r="V42" t="n">
-        <v>1153.462291634152</v>
+        <v>1356.929535868268</v>
       </c>
       <c r="W42" t="n">
-        <v>899.2249349059502</v>
+        <v>1102.692179140066</v>
       </c>
       <c r="X42" t="n">
-        <v>706.9180541018102</v>
+        <v>1098.307923168649</v>
       </c>
       <c r="Y42" t="n">
-        <v>499.1577553368562</v>
+        <v>890.547624403695</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="C43" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="D43" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="E43" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="F43" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="G43" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="H43" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I43" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="J43" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="K43" t="n">
-        <v>44.57112584252162</v>
+        <v>44.57112584252163</v>
       </c>
       <c r="L43" t="n">
         <v>106.3039374189714</v>
@@ -7582,37 +7582,37 @@
         <v>260.8992970698753</v>
       </c>
       <c r="O43" t="n">
-        <v>317.9609498066897</v>
+        <v>323.6287774640327</v>
       </c>
       <c r="P43" t="n">
-        <v>343.2663691992763</v>
+        <v>348.9341968566193</v>
       </c>
       <c r="Q43" t="n">
-        <v>343.2663691992763</v>
+        <v>348.9341968566193</v>
       </c>
       <c r="R43" t="n">
-        <v>348.9341968566191</v>
+        <v>348.9341968566193</v>
       </c>
       <c r="S43" t="n">
-        <v>330.2384913528307</v>
+        <v>330.238491352831</v>
       </c>
       <c r="T43" t="n">
-        <v>304.4669131583383</v>
+        <v>304.4669131583385</v>
       </c>
       <c r="U43" t="n">
-        <v>218.7359006415256</v>
+        <v>218.7359006415257</v>
       </c>
       <c r="V43" t="n">
-        <v>167.5186566697544</v>
+        <v>167.5186566697545</v>
       </c>
       <c r="W43" t="n">
-        <v>81.56873086690945</v>
+        <v>81.5687308669095</v>
       </c>
       <c r="X43" t="n">
-        <v>57.04642420300778</v>
+        <v>57.04642420300782</v>
       </c>
       <c r="Y43" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
     </row>
     <row r="44">
@@ -7625,64 +7625,64 @@
         <v>1099.402103283626</v>
       </c>
       <c r="C44" t="n">
-        <v>933.9068305773297</v>
+        <v>933.9068305773295</v>
       </c>
       <c r="D44" t="n">
-        <v>779.1083762046949</v>
+        <v>779.1083762046947</v>
       </c>
       <c r="E44" t="n">
-        <v>596.7873678405663</v>
+        <v>596.787367840566</v>
       </c>
       <c r="F44" t="n">
-        <v>389.2687072850744</v>
+        <v>389.2687072850742</v>
       </c>
       <c r="G44" t="n">
-        <v>173.7648196416495</v>
+        <v>173.7648196416496</v>
       </c>
       <c r="H44" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I44" t="n">
-        <v>39.72108929359335</v>
+        <v>50.66529593357136</v>
       </c>
       <c r="J44" t="n">
-        <v>71.69495660791924</v>
+        <v>82.63916324789724</v>
       </c>
       <c r="K44" t="n">
-        <v>240.3602995897151</v>
+        <v>251.3045062296931</v>
       </c>
       <c r="L44" t="n">
-        <v>701.2994455845561</v>
+        <v>512.8254061506773</v>
       </c>
       <c r="M44" t="n">
-        <v>1192.847925592774</v>
+        <v>820.4243424685112</v>
       </c>
       <c r="N44" t="n">
-        <v>1490.792136739204</v>
+        <v>1141.346304930728</v>
       </c>
       <c r="O44" t="n">
-        <v>1726.944768790995</v>
+        <v>1377.498936982519</v>
       </c>
       <c r="P44" t="n">
-        <v>1890.821193755426</v>
+        <v>1740.793608020806</v>
       </c>
       <c r="Q44" t="n">
-        <v>1981.805372454361</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="R44" t="n">
-        <v>1981.805372454361</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="S44" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="T44" t="n">
-        <v>1966.477482057596</v>
+        <v>1966.477482057597</v>
       </c>
       <c r="U44" t="n">
-        <v>1916.102355027745</v>
+        <v>1916.102355027746</v>
       </c>
       <c r="V44" t="n">
-        <v>1788.50671191829</v>
+        <v>1788.506711918291</v>
       </c>
       <c r="W44" t="n">
         <v>1639.205300882292</v>
@@ -7701,43 +7701,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>917.9776763167871</v>
+        <v>494.4275119334152</v>
       </c>
       <c r="C45" t="n">
-        <v>743.5246470356601</v>
+        <v>494.4275119334152</v>
       </c>
       <c r="D45" t="n">
-        <v>594.5902373744088</v>
+        <v>345.4931022721639</v>
       </c>
       <c r="E45" t="n">
-        <v>435.3527823689533</v>
+        <v>186.2556472667084</v>
       </c>
       <c r="F45" t="n">
-        <v>288.8182243958382</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="G45" t="n">
-        <v>150.3691456068174</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="H45" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I45" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="J45" t="n">
-        <v>65.07112594008311</v>
+        <v>65.07112594008312</v>
       </c>
       <c r="K45" t="n">
-        <v>235.0192193781749</v>
+        <v>235.019219378175</v>
       </c>
       <c r="L45" t="n">
         <v>524.939800189879</v>
       </c>
       <c r="M45" t="n">
-        <v>915.2426649670833</v>
+        <v>915.2426649670831</v>
       </c>
       <c r="N45" t="n">
-        <v>1331.582698579977</v>
+        <v>1331.582698579976</v>
       </c>
       <c r="O45" t="n">
         <v>1646.036812456933</v>
@@ -7752,25 +7752,25 @@
         <v>1902.377940807625</v>
       </c>
       <c r="S45" t="n">
-        <v>1902.377940807625</v>
+        <v>1734.193916307066</v>
       </c>
       <c r="T45" t="n">
-        <v>1902.377940807625</v>
+        <v>1533.14295829507</v>
       </c>
       <c r="U45" t="n">
-        <v>1674.172858506406</v>
+        <v>1304.937875993851</v>
       </c>
       <c r="V45" t="n">
-        <v>1552.574924801428</v>
+        <v>1273.253011996224</v>
       </c>
       <c r="W45" t="n">
-        <v>1298.337568073226</v>
+        <v>1078.25464792397</v>
       </c>
       <c r="X45" t="n">
-        <v>1293.953312101809</v>
+        <v>870.4031477184371</v>
       </c>
       <c r="Y45" t="n">
-        <v>1086.193013336855</v>
+        <v>662.6428489534833</v>
       </c>
     </row>
     <row r="46">
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="C46" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="D46" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="E46" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="F46" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="G46" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="H46" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I46" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="J46" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="K46" t="n">
-        <v>44.57112584252162</v>
+        <v>44.57112584252163</v>
       </c>
       <c r="L46" t="n">
         <v>106.3039374189714</v>
@@ -7819,37 +7819,37 @@
         <v>260.8992970698753</v>
       </c>
       <c r="O46" t="n">
-        <v>317.9609498066897</v>
+        <v>323.6287774640327</v>
       </c>
       <c r="P46" t="n">
-        <v>343.2663691992763</v>
+        <v>348.9341968566193</v>
       </c>
       <c r="Q46" t="n">
-        <v>343.2663691992763</v>
+        <v>348.9341968566193</v>
       </c>
       <c r="R46" t="n">
-        <v>348.9341968566191</v>
+        <v>348.9341968566193</v>
       </c>
       <c r="S46" t="n">
-        <v>330.2384913528307</v>
+        <v>330.238491352831</v>
       </c>
       <c r="T46" t="n">
-        <v>304.4669131583383</v>
+        <v>304.4669131583385</v>
       </c>
       <c r="U46" t="n">
-        <v>218.7359006415256</v>
+        <v>218.7359006415257</v>
       </c>
       <c r="V46" t="n">
-        <v>167.5186566697544</v>
+        <v>167.5186566697545</v>
       </c>
       <c r="W46" t="n">
-        <v>81.56873086690945</v>
+        <v>81.5687308669095</v>
       </c>
       <c r="X46" t="n">
-        <v>57.04642420300778</v>
+        <v>57.04642420300782</v>
       </c>
       <c r="Y46" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
     </row>
   </sheetData>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>136.7997795010375</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>153.7763792562194</v>
       </c>
       <c r="L11" t="n">
-        <v>206.9673570741979</v>
+        <v>153.4986893777391</v>
       </c>
       <c r="M11" t="n">
         <v>337.506376885244</v>
       </c>
       <c r="N11" t="n">
-        <v>136.3931757792261</v>
+        <v>327.9340411195939</v>
       </c>
       <c r="O11" t="n">
         <v>340.961008762271</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>152.1644257553285</v>
+        <v>92.80049616602119</v>
       </c>
       <c r="L12" t="n">
-        <v>276.6901134495374</v>
+        <v>77.99127377648546</v>
       </c>
       <c r="M12" t="n">
-        <v>71.45974579322798</v>
+        <v>270.1585854662799</v>
       </c>
       <c r="N12" t="n">
-        <v>58.7968858456816</v>
+        <v>257.4957255187335</v>
       </c>
       <c r="O12" t="n">
-        <v>274.9307408922498</v>
+        <v>241.296407323147</v>
       </c>
       <c r="P12" t="n">
         <v>279.4100108652725</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>104.3767112212073</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>136.7997795010375</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>153.7763792562194</v>
       </c>
       <c r="L14" t="n">
         <v>153.4986893777391</v>
@@ -8936,16 +8936,16 @@
         <v>337.506376885244</v>
       </c>
       <c r="N14" t="n">
-        <v>335.092015452278</v>
+        <v>335.0920154522779</v>
       </c>
       <c r="O14" t="n">
-        <v>149.4251695280976</v>
+        <v>340.961008762271</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>314.6407338387987</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>166.0093234023244</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9012,16 +9012,16 @@
         <v>276.6901134495374</v>
       </c>
       <c r="M15" t="n">
-        <v>270.1585854662799</v>
+        <v>71.45974579322797</v>
       </c>
       <c r="N15" t="n">
-        <v>58.7968858456816</v>
+        <v>257.4957255187335</v>
       </c>
       <c r="O15" t="n">
-        <v>162.6299296349997</v>
+        <v>76.23190121919794</v>
       </c>
       <c r="P15" t="n">
-        <v>80.7111711922206</v>
+        <v>167.1091996080224</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9161,19 +9161,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>143.9627799399159</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>352.197529050791</v>
+        <v>153.4986893777391</v>
       </c>
       <c r="M17" t="n">
-        <v>159.9793692376147</v>
+        <v>337.506376885244</v>
       </c>
       <c r="N17" t="n">
-        <v>335.092015452278</v>
+        <v>335.0920154522779</v>
       </c>
       <c r="O17" t="n">
         <v>142.2621690892191</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>166.0093234023244</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>100.4849377176919</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>92.80049616602119</v>
       </c>
       <c r="L18" t="n">
         <v>276.6901134495374</v>
@@ -9252,16 +9252,16 @@
         <v>270.1585854662799</v>
       </c>
       <c r="N18" t="n">
-        <v>58.7968858456816</v>
+        <v>257.4957255187335</v>
       </c>
       <c r="O18" t="n">
-        <v>76.23190121919795</v>
+        <v>76.23190121919794</v>
       </c>
       <c r="P18" t="n">
-        <v>167.1091996080224</v>
+        <v>271.3817749188865</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>104.3767112212073</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9404,22 +9404,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>153.4986893777391</v>
+        <v>174.6705214031616</v>
       </c>
       <c r="M20" t="n">
-        <v>337.506376885244</v>
+        <v>138.8075372121921</v>
       </c>
       <c r="N20" t="n">
-        <v>276.7910829353822</v>
+        <v>335.0920154522779</v>
       </c>
       <c r="O20" t="n">
         <v>340.961008762271</v>
       </c>
       <c r="P20" t="n">
-        <v>156.2669657831689</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>166.0093234023244</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,22 +9477,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>100.4849377176919</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>92.80049616602119</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>276.6901134495374</v>
       </c>
       <c r="M21" t="n">
-        <v>270.1585854662799</v>
+        <v>157.8577742090297</v>
       </c>
       <c r="N21" t="n">
-        <v>58.7968858456816</v>
+        <v>58.79688584568159</v>
       </c>
       <c r="O21" t="n">
-        <v>161.2019284312221</v>
+        <v>76.23190121919794</v>
       </c>
       <c r="P21" t="n">
         <v>279.4100108652725</v>
@@ -9641,19 +9641,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>153.4986893777391</v>
+        <v>352.197529050791</v>
       </c>
       <c r="M23" t="n">
         <v>138.8075372121921</v>
       </c>
       <c r="N23" t="n">
-        <v>309.9581802201203</v>
+        <v>335.0920154522779</v>
       </c>
       <c r="O23" t="n">
-        <v>340.961008762271</v>
+        <v>282.660076245375</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>156.2669657831689</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>100.4849377176919</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>177.7705233780454</v>
       </c>
       <c r="L24" t="n">
         <v>276.6901134495374</v>
@@ -9726,13 +9726,13 @@
         <v>270.1585854662799</v>
       </c>
       <c r="N24" t="n">
-        <v>145.1949142614834</v>
+        <v>257.4957255187335</v>
       </c>
       <c r="O24" t="n">
-        <v>76.23190121919795</v>
+        <v>76.23190121919794</v>
       </c>
       <c r="P24" t="n">
-        <v>80.7111711922206</v>
+        <v>80.71117119222058</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>264.4652370125791</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637500003</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11142,13 +11142,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034596</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>479.342374343554</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.403679538658423</v>
+        <v>204.1025192117103</v>
       </c>
       <c r="C11" t="n">
         <v>186.6415693192373</v>
       </c>
       <c r="D11" t="n">
-        <v>176.0517191689127</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>203.2990476204915</v>
+        <v>92.40388296033028</v>
       </c>
       <c r="F11" t="n">
-        <v>45.63172385956398</v>
+        <v>228.2447232899412</v>
       </c>
       <c r="G11" t="n">
-        <v>37.45125843394359</v>
+        <v>37.45125843394356</v>
       </c>
       <c r="H11" t="n">
         <v>155.5045423845798</v>
       </c>
       <c r="I11" t="n">
-        <v>11.74649515820828</v>
+        <v>11.74649515820825</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>18.5092369912097</v>
+        <v>18.50923699120966</v>
       </c>
       <c r="T11" t="n">
-        <v>42.18246213585451</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>72.67262509955671</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>149.1209360183647</v>
+        <v>149.1209360183646</v>
       </c>
       <c r="W11" t="n">
-        <v>170.6096462656428</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>191.0997782266988</v>
       </c>
       <c r="Y11" t="n">
         <v>207.6066162042833</v>
@@ -23492,22 +23492,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>204.1025192117104</v>
+        <v>204.1025192117103</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>186.6415693192373</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>176.0517191689127</v>
       </c>
       <c r="E14" t="n">
-        <v>203.2990476204916</v>
+        <v>203.2990476204915</v>
       </c>
       <c r="F14" t="n">
         <v>228.2447232899412</v>
       </c>
       <c r="G14" t="n">
-        <v>236.1500981069955</v>
+        <v>37.45125843394357</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>18.50923699120973</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>72.67262509955674</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>47.93432672328831</v>
       </c>
       <c r="W14" t="n">
-        <v>170.6096462656428</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>191.0997782266988</v>
       </c>
       <c r="Y14" t="n">
-        <v>157.7438833862609</v>
+        <v>207.6066162042833</v>
       </c>
     </row>
     <row r="15">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-6.679101716144942e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>740315.3873192758</v>
+        <v>740315.3873192759</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>740315.3873192758</v>
+        <v>740315.3873192759</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>843566.7453478019</v>
+        <v>843566.7453478018</v>
       </c>
     </row>
     <row r="8">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>716866.7963774089</v>
+        <v>716866.7963774086</v>
       </c>
       <c r="C2" t="n">
+        <v>716866.7963774086</v>
+      </c>
+      <c r="D2" t="n">
         <v>716866.7963774087</v>
-      </c>
-      <c r="D2" t="n">
-        <v>716866.7963774084</v>
       </c>
       <c r="E2" t="n">
         <v>615160.1906027218</v>
       </c>
       <c r="F2" t="n">
-        <v>615160.190602722</v>
+        <v>615160.1906027219</v>
       </c>
       <c r="G2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="H2" t="n">
+        <v>718411.5486312481</v>
+      </c>
+      <c r="I2" t="n">
         <v>718411.5486312479</v>
       </c>
-      <c r="I2" t="n">
-        <v>718411.5486312482</v>
-      </c>
       <c r="J2" t="n">
-        <v>718411.5486312469</v>
+        <v>718411.5486312476</v>
       </c>
       <c r="K2" t="n">
-        <v>718411.5486312471</v>
+        <v>718411.5486312468</v>
       </c>
       <c r="L2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.548631247</v>
       </c>
       <c r="M2" t="n">
         <v>718411.5486312475</v>
       </c>
       <c r="N2" t="n">
-        <v>718411.5486312475</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="O2" t="n">
-        <v>718411.5486312472</v>
+        <v>718411.5486312474</v>
       </c>
       <c r="P2" t="n">
-        <v>718411.548631247</v>
+        <v>718411.5486312476</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>97259.69009554025</v>
+        <v>97259.69009554021</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97259.69009554025</v>
+        <v>97259.69009554024</v>
       </c>
       <c r="M3" t="n">
         <v>41944.3852551344</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>21941.98208274495</v>
+        <v>21941.98208274493</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26445,13 +26445,13 @@
         <v>402100.501383587</v>
       </c>
       <c r="L4" t="n">
-        <v>402100.501383587</v>
+        <v>402100.5013835871</v>
       </c>
       <c r="M4" t="n">
+        <v>401149.2079382486</v>
+      </c>
+      <c r="N4" t="n">
         <v>401149.2079382485</v>
-      </c>
-      <c r="N4" t="n">
-        <v>401149.2079382486</v>
       </c>
       <c r="O4" t="n">
         <v>401149.2079382485</v>
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>29925.21762447104</v>
+        <v>29925.21762447105</v>
       </c>
       <c r="F5" t="n">
-        <v>29925.21762447104</v>
+        <v>29925.21762447105</v>
       </c>
       <c r="G5" t="n">
         <v>40145.87373277351</v>
@@ -26494,7 +26494,7 @@
         <v>57622.34556334943</v>
       </c>
       <c r="K5" t="n">
-        <v>57622.34556334944</v>
+        <v>57622.34556334943</v>
       </c>
       <c r="L5" t="n">
         <v>57622.34556334944</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>230839.2058284437</v>
+        <v>230834.7922505753</v>
       </c>
       <c r="C6" t="n">
-        <v>230839.2058284435</v>
+        <v>230834.7922505753</v>
       </c>
       <c r="D6" t="n">
-        <v>230839.2058284433</v>
+        <v>230834.7922505754</v>
       </c>
       <c r="E6" t="n">
-        <v>-60897.70233333755</v>
+        <v>-61192.70621341911</v>
       </c>
       <c r="F6" t="n">
-        <v>245517.8249460979</v>
+        <v>245222.8210660162</v>
       </c>
       <c r="G6" t="n">
-        <v>173989.8358707481</v>
+        <v>173989.8358707479</v>
       </c>
       <c r="H6" t="n">
+        <v>271249.5259662882</v>
+      </c>
+      <c r="I6" t="n">
         <v>271249.5259662881</v>
       </c>
-      <c r="I6" t="n">
-        <v>271249.5259662883</v>
-      </c>
       <c r="J6" t="n">
-        <v>106836.9110124038</v>
+        <v>106836.9110124045</v>
       </c>
       <c r="K6" t="n">
-        <v>258688.7016843107</v>
+        <v>258688.7016843103</v>
       </c>
       <c r="L6" t="n">
-        <v>161429.0115887711</v>
+        <v>161429.0115887703</v>
       </c>
       <c r="M6" t="n">
-        <v>225368.7211716193</v>
+        <v>225368.7211716192</v>
       </c>
       <c r="N6" t="n">
-        <v>267313.1064267536</v>
+        <v>267313.106426754</v>
       </c>
       <c r="O6" t="n">
-        <v>245371.1243440085</v>
+        <v>245371.1243440087</v>
       </c>
       <c r="P6" t="n">
-        <v>267313.1064267532</v>
+        <v>267313.1064267538</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="F2" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="G2" t="n">
         <v>300.2059350711955</v>
@@ -26719,7 +26719,7 @@
         <v>201.4325717917745</v>
       </c>
       <c r="N2" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="O2" t="n">
         <v>201.4325717917745</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>27.42747760343121</v>
+        <v>27.42747760343124</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.42747760343119</v>
+        <v>27.42747760343116</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.42747760343121</v>
+        <v>27.42747760343124</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="C11" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="D11" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="E11" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="F11" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="G11" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="H11" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="I11" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>117.1219416806167</v>
       </c>
       <c r="S11" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="T11" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="U11" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="V11" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="W11" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="X11" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
     </row>
     <row r="12">
@@ -28169,7 +28169,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -28184,7 +28184,7 @@
         <v>137.0645880011306</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.5415757500918</v>
       </c>
       <c r="I12" t="n">
         <v>79.79315073593985</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.83975863332245</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>166.5021842555528</v>
@@ -28223,19 +28223,19 @@
         <v>0.3416087588242647</v>
       </c>
       <c r="U12" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="V12" t="n">
-        <v>178.6313224517702</v>
+        <v>34.10174747637336</v>
       </c>
       <c r="W12" t="n">
-        <v>117.1874503705318</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="X12" t="n">
-        <v>178.6313224517702</v>
+        <v>62.30670924084342</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
     </row>
     <row r="13">
@@ -28245,16 +28245,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -28266,13 +28266,13 @@
         <v>160.1480792967325</v>
       </c>
       <c r="I13" t="n">
-        <v>178.6313224517702</v>
+        <v>148.4181228403268</v>
       </c>
       <c r="J13" t="n">
-        <v>76.82634995341206</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>5.781382073683799</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28287,34 +28287,34 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>139.5863641993576</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>66.58072672426808</v>
+        <v>66.58072672426806</v>
       </c>
       <c r="R13" t="n">
         <v>166.7788770416304</v>
       </c>
       <c r="S13" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="T13" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="U13" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="V13" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="W13" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="X13" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="C14" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="D14" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="E14" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="F14" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="G14" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="H14" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="I14" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>117.1219416806167</v>
       </c>
       <c r="S14" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="T14" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="U14" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="V14" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="W14" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="X14" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
     </row>
     <row r="15">
@@ -28406,7 +28406,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>94.30033173610947</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.83975863332245</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>166.5021842555528</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="U15" t="n">
-        <v>27.22419180515449</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="V15" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="W15" t="n">
-        <v>52.9961434878677</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="X15" t="n">
-        <v>178.6313224517702</v>
+        <v>72.52278847792064</v>
       </c>
       <c r="Y15" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
     </row>
     <row r="16">
@@ -28482,10 +28482,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="C16" t="n">
-        <v>178.6313224517702</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -28503,19 +28503,19 @@
         <v>160.1480792967325</v>
       </c>
       <c r="I16" t="n">
-        <v>178.6313224517702</v>
+        <v>148.4181228403268</v>
       </c>
       <c r="J16" t="n">
-        <v>76.82634995341206</v>
+        <v>110.2834494209084</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>136.3424643433046</v>
       </c>
       <c r="M16" t="n">
-        <v>116.3494174360759</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28527,31 +28527,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>66.58072672426808</v>
+        <v>66.58072672426806</v>
       </c>
       <c r="R16" t="n">
-        <v>178.6313224517702</v>
+        <v>166.7788770416304</v>
       </c>
       <c r="S16" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="T16" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="U16" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="V16" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="W16" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="X16" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517703</v>
       </c>
     </row>
     <row r="17">
@@ -28655,7 +28655,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.7591490054222</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H18" t="n">
         <v>109.5415757500918</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>82.83975863332245</v>
+        <v>82.83975863332243</v>
       </c>
       <c r="S18" t="n">
-        <v>166.5021842555528</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>199.0404484318762</v>
+        <v>0.3416087588242647</v>
       </c>
       <c r="U18" t="n">
-        <v>27.22419180515449</v>
+        <v>27.22419180515448</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>198.2984927362178</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>7.074145530425568</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.983856104252453</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -28725,13 +28725,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.7571345188087</v>
@@ -28743,7 +28743,7 @@
         <v>148.4181228403268</v>
       </c>
       <c r="J19" t="n">
-        <v>70.35304388792959</v>
+        <v>76.82634995341206</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.58072672426808</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>166.7788770416304</v>
+        <v>131.5486163323242</v>
       </c>
       <c r="S19" t="n">
         <v>219.9413202405249</v>
@@ -28785,7 +28785,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>27.01081571598525</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -28877,22 +28877,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>136.5574586649126</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H21" t="n">
         <v>109.5415757500918</v>
@@ -28925,19 +28925,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>82.83975863332245</v>
+        <v>82.83975863332243</v>
       </c>
       <c r="S21" t="n">
-        <v>149.1488573167945</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>199.0404484318762</v>
+        <v>0.3416087588242536</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9230314782064</v>
+        <v>27.22419180515449</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>34.10174747637336</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -28968,10 +28968,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>12.66835543511385</v>
+        <v>167.7571345188087</v>
       </c>
       <c r="H22" t="n">
         <v>160.1480792967325</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.58072672426808</v>
+        <v>66.58072672426806</v>
       </c>
       <c r="R22" t="n">
         <v>166.7788770416304</v>
@@ -29013,7 +29013,7 @@
         <v>226.9464342043221</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3062741834191</v>
+        <v>87.60743451036717</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -29022,7 +29022,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>123.8986679554629</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -29114,13 +29114,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -29132,7 +29132,7 @@
         <v>137.0645880011306</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.5415757500918</v>
       </c>
       <c r="I24" t="n">
         <v>79.79315073593985</v>
@@ -29162,22 +29162,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>82.83975863332245</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>166.5021842555528</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>199.0404484318762</v>
+        <v>0.3416087588242647</v>
       </c>
       <c r="U24" t="n">
         <v>225.9230314782064</v>
       </c>
       <c r="V24" t="n">
-        <v>34.10174747637336</v>
+        <v>108.4297523812244</v>
       </c>
       <c r="W24" t="n">
-        <v>102.8031907953896</v>
+        <v>52.9961434878677</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -29196,10 +29196,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>15.35246701021413</v>
+        <v>113.3852123089062</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.58072672426808</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>166.7788770416304</v>
@@ -29250,7 +29250,7 @@
         <v>226.9464342043221</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3062741834191</v>
+        <v>87.60743451036716</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -29351,22 +29351,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>40.00623220871637</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>140.2733955514554</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>149.0020902228565</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H27" t="n">
         <v>109.5415757500918</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>82.83975863332245</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -29417,10 +29417,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>149.0020902228565</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>149.0020902228565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29439,10 +29439,10 @@
         <v>149.0020902228565</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="G28" t="n">
         <v>149.0020902228565</v>
@@ -29454,28 +29454,28 @@
         <v>148.4181228403268</v>
       </c>
       <c r="J28" t="n">
-        <v>76.82634995341206</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="K28" t="n">
-        <v>31.51432709122834</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
         <v>149.0020902228565</v>
-      </c>
-      <c r="M28" t="n">
-        <v>149.0020902228565</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>149.0020902228565</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>19.77014376983938</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.58072672426808</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="R28" t="n">
         <v>149.0020902228565</v>
@@ -29536,7 +29536,7 @@
         <v>149.0020902228565</v>
       </c>
       <c r="K29" t="n">
-        <v>149.0020902228562</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="L29" t="n">
         <v>149.0020902228565</v>
@@ -29597,19 +29597,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>126.7788686715117</v>
       </c>
       <c r="H30" t="n">
         <v>109.5415757500918</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>79.79315073593985</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,28 +29636,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>82.83975863332245</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
         <v>149.0020902228565</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>149.0020902228565</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>123.7322607741291</v>
       </c>
     </row>
     <row r="31">
@@ -29673,7 +29673,7 @@
         <v>149.0020902228565</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="E31" t="n">
         <v>149.0020902228565</v>
@@ -29691,28 +29691,28 @@
         <v>148.4181228403268</v>
       </c>
       <c r="J31" t="n">
+        <v>76.82634995341206</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
         <v>149.0020902228565</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>149.0020902228565</v>
       </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>25.36515731501584</v>
       </c>
       <c r="O31" t="n">
-        <v>102.5781244730713</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="P31" t="n">
-        <v>149.0020902228565</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>66.58072672426808</v>
+        <v>66.58072672426806</v>
       </c>
       <c r="R31" t="n">
         <v>149.0020902228565</v>
@@ -29788,7 +29788,7 @@
         <v>149.0020902228565</v>
       </c>
       <c r="P32" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228562</v>
       </c>
       <c r="Q32" t="n">
         <v>149.0020902228565</v>
@@ -29828,19 +29828,19 @@
         <v>149.0020902228565</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>95.32297859100024</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -29873,10 +29873,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>82.83975863332245</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>2.102742394169695</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -29885,7 +29885,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>149.0020902228565</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -29910,13 +29910,13 @@
         <v>149.0020902228565</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="E34" t="n">
         <v>149.0020902228565</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="G34" t="n">
         <v>149.0020902228565</v>
@@ -29934,22 +29934,22 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="M34" t="n">
-        <v>29.33281671958464</v>
+        <v>91.94588403928304</v>
       </c>
       <c r="N34" t="n">
-        <v>149.0020902228565</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>149.0020902228565</v>
       </c>
       <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
         <v>149.0020902228565</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>66.58072672426808</v>
       </c>
       <c r="R34" t="n">
         <v>149.0020902228565</v>
@@ -30004,19 +30004,19 @@
         <v>201.4325717917745</v>
       </c>
       <c r="I35" t="n">
-        <v>190.3778176099785</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
         <v>201.4325717917745</v>
       </c>
-      <c r="K35" t="n">
-        <v>34.26460399572153</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>23.20984981392559</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -30074,16 +30074,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H36" t="n">
         <v>109.5415757500918</v>
       </c>
       <c r="I36" t="n">
-        <v>43.61794047039594</v>
+        <v>79.79315073593985</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,13 +30110,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>82.83975863332245</v>
+        <v>82.83975863332243</v>
       </c>
       <c r="S36" t="n">
-        <v>166.5021842555528</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>199.0404484318762</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -30128,7 +30128,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>47.2336220273703</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -30159,10 +30159,10 @@
         <v>167.7571345188087</v>
       </c>
       <c r="H37" t="n">
-        <v>165.8731577384927</v>
+        <v>160.1480792967325</v>
       </c>
       <c r="I37" t="n">
-        <v>148.4181228403268</v>
+        <v>154.1432012820869</v>
       </c>
       <c r="J37" t="n">
         <v>76.82634995341206</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>66.58072672426808</v>
+        <v>66.58072672426806</v>
       </c>
       <c r="R37" t="n">
         <v>166.7788770416304</v>
@@ -30220,31 +30220,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="C38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="D38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="E38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="F38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="G38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="H38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="I38" t="n">
-        <v>190.3778176099785</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="J38" t="n">
-        <v>147.0945333275436</v>
+        <v>140.3317914945424</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -30262,34 +30262,34 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>201.4325717917745</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="R38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="S38" t="n">
-        <v>201.4325717917745</v>
+        <v>197.1405594429799</v>
       </c>
       <c r="T38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="U38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="V38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="W38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="X38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="Y38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
     </row>
     <row r="39">
@@ -30302,7 +30302,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -30311,10 +30311,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H39" t="n">
         <v>109.5415757500918</v>
@@ -30347,16 +30347,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.83975863332245</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>166.5021842555528</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>27.99604066371043</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30368,7 +30368,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>112.6341089565231</v>
       </c>
     </row>
     <row r="40">
@@ -30420,34 +30420,34 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>5.725078441760211</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.58072672426808</v>
+        <v>72.30580516602795</v>
       </c>
       <c r="R40" t="n">
         <v>166.7788770416304</v>
       </c>
       <c r="S40" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="T40" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="U40" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="V40" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="W40" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="Y40" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
     </row>
     <row r="41">
@@ -30487,25 +30487,25 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>151.3865456763384</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
         <v>201.4325717917745</v>
       </c>
-      <c r="M41" t="n">
-        <v>185.8076198892765</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
       <c r="Q41" t="n">
-        <v>49.88955589821937</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>117.1219416806167</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="S41" t="n">
         <v>197.1405594429799</v>
@@ -30536,16 +30536,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>84.14735929373677</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.83975863332245</v>
+        <v>82.83975863332243</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30596,13 +30596,13 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>15.38917320737883</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -30654,16 +30654,16 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>5.725078441760601</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>66.58072672426808</v>
+        <v>66.58072672426806</v>
       </c>
       <c r="R43" t="n">
-        <v>172.5039554833908</v>
+        <v>166.7788770416304</v>
       </c>
       <c r="S43" t="n">
         <v>201.4325717917745</v>
@@ -30715,7 +30715,7 @@
         <v>201.4325717917745</v>
       </c>
       <c r="I44" t="n">
-        <v>190.3778176099785</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30724,28 +30724,28 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>23.20984981392564</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
         <v>201.4325717917745</v>
       </c>
-      <c r="M44" t="n">
-        <v>185.8076198892765</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
       <c r="Q44" t="n">
-        <v>45.59754354942478</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="R44" t="n">
         <v>117.1219416806167</v>
       </c>
       <c r="S44" t="n">
-        <v>201.4325717917745</v>
+        <v>197.1405594429799</v>
       </c>
       <c r="T44" t="n">
         <v>201.4325717917745</v>
@@ -30776,7 +30776,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -30788,10 +30788,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.5415757500918</v>
       </c>
       <c r="I45" t="n">
         <v>79.79315073593985</v>
@@ -30824,22 +30824,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>166.5021842555528</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>199.0404484318762</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>112.4186327814968</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>58.64660272938778</v>
       </c>
       <c r="X45" t="n">
-        <v>201.4325717917745</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30891,16 +30891,16 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>5.725078441760601</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>66.58072672426808</v>
+        <v>66.58072672426806</v>
       </c>
       <c r="R46" t="n">
-        <v>172.5039554833908</v>
+        <v>166.7788770416304</v>
       </c>
       <c r="S46" t="n">
         <v>201.4325717917745</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5213169563692982</v>
+        <v>0.5213169563692983</v>
       </c>
       <c r="H11" t="n">
-        <v>5.338937279417077</v>
+        <v>5.338937279417078</v>
       </c>
       <c r="I11" t="n">
         <v>20.09807196042739</v>
       </c>
       <c r="J11" t="n">
-        <v>44.24612502564876</v>
+        <v>44.24612502564877</v>
       </c>
       <c r="K11" t="n">
-        <v>66.31347178876116</v>
+        <v>66.31347178876118</v>
       </c>
       <c r="L11" t="n">
-        <v>82.2677255922481</v>
+        <v>82.26772559224811</v>
       </c>
       <c r="M11" t="n">
-        <v>91.53869601508059</v>
+        <v>91.53869601508062</v>
       </c>
       <c r="N11" t="n">
-        <v>93.01988781736488</v>
+        <v>93.01988781736489</v>
       </c>
       <c r="O11" t="n">
-        <v>87.83604233246766</v>
+        <v>87.83604233246767</v>
       </c>
       <c r="P11" t="n">
-        <v>74.9660299721006</v>
+        <v>74.96602997210061</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.29636647212509</v>
+        <v>56.2963664721251</v>
       </c>
       <c r="R11" t="n">
-        <v>32.74717626053295</v>
+        <v>32.74717626053296</v>
       </c>
       <c r="S11" t="n">
-        <v>11.87951014326539</v>
+        <v>11.8795101432654</v>
       </c>
       <c r="T11" t="n">
-        <v>2.282064976506604</v>
+        <v>2.282064976506605</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04170535650954384</v>
+        <v>0.04170535650954386</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,37 +31835,37 @@
         <v>2.693868486404646</v>
       </c>
       <c r="I12" t="n">
-        <v>9.603482115475234</v>
+        <v>9.603482115475236</v>
       </c>
       <c r="J12" t="n">
-        <v>26.35268894897478</v>
+        <v>26.35268894897479</v>
       </c>
       <c r="K12" t="n">
         <v>45.0409428083378</v>
       </c>
       <c r="L12" t="n">
-        <v>60.56310600338872</v>
+        <v>60.56310600338873</v>
       </c>
       <c r="M12" t="n">
-        <v>70.67428812879034</v>
+        <v>70.67428812879035</v>
       </c>
       <c r="N12" t="n">
-        <v>72.54482623765171</v>
+        <v>72.54482623765172</v>
       </c>
       <c r="O12" t="n">
-        <v>66.36434322524649</v>
+        <v>66.3643432252465</v>
       </c>
       <c r="P12" t="n">
-        <v>53.26323622210965</v>
+        <v>53.26323622210966</v>
       </c>
       <c r="Q12" t="n">
         <v>35.60506286481417</v>
       </c>
       <c r="R12" t="n">
-        <v>17.31807551932069</v>
+        <v>17.3180755193207</v>
       </c>
       <c r="S12" t="n">
-        <v>5.180986848285043</v>
+        <v>5.180986848285044</v>
       </c>
       <c r="T12" t="n">
         <v>1.124280262945444</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2338448396500808</v>
+        <v>0.2338448396500809</v>
       </c>
       <c r="H13" t="n">
         <v>2.079093210707084</v>
       </c>
       <c r="I13" t="n">
-        <v>7.032352086931524</v>
+        <v>7.032352086931525</v>
       </c>
       <c r="J13" t="n">
-        <v>16.53283016326071</v>
+        <v>16.53283016326072</v>
       </c>
       <c r="K13" t="n">
-        <v>27.16851864298211</v>
+        <v>27.16851864298212</v>
       </c>
       <c r="L13" t="n">
-        <v>34.76635006943111</v>
+        <v>34.76635006943112</v>
       </c>
       <c r="M13" t="n">
         <v>36.65624154623949</v>
       </c>
       <c r="N13" t="n">
-        <v>35.7846380529983</v>
+        <v>35.78463805299831</v>
       </c>
       <c r="O13" t="n">
-        <v>33.05290515344962</v>
+        <v>33.05290515344963</v>
       </c>
       <c r="P13" t="n">
         <v>28.28247042458795</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.58131652742631</v>
+        <v>19.58131652742632</v>
       </c>
       <c r="R13" t="n">
         <v>10.51451433553909</v>
       </c>
       <c r="S13" t="n">
-        <v>4.075277796447316</v>
+        <v>4.075277796447317</v>
       </c>
       <c r="T13" t="n">
-        <v>0.999155223959436</v>
+        <v>0.9991552239594362</v>
       </c>
       <c r="U13" t="n">
         <v>0.01275517307182261</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5213169563692982</v>
+        <v>0.5213169563692983</v>
       </c>
       <c r="H14" t="n">
-        <v>5.338937279417077</v>
+        <v>5.338937279417078</v>
       </c>
       <c r="I14" t="n">
         <v>20.09807196042739</v>
       </c>
       <c r="J14" t="n">
-        <v>44.24612502564876</v>
+        <v>44.24612502564877</v>
       </c>
       <c r="K14" t="n">
-        <v>66.31347178876116</v>
+        <v>66.31347178876118</v>
       </c>
       <c r="L14" t="n">
-        <v>82.2677255922481</v>
+        <v>82.26772559224811</v>
       </c>
       <c r="M14" t="n">
-        <v>91.53869601508059</v>
+        <v>91.53869601508062</v>
       </c>
       <c r="N14" t="n">
-        <v>93.01988781736488</v>
+        <v>93.01988781736489</v>
       </c>
       <c r="O14" t="n">
-        <v>87.83604233246766</v>
+        <v>87.83604233246767</v>
       </c>
       <c r="P14" t="n">
-        <v>74.9660299721006</v>
+        <v>74.96602997210061</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.29636647212509</v>
+        <v>56.2963664721251</v>
       </c>
       <c r="R14" t="n">
-        <v>32.74717626053295</v>
+        <v>32.74717626053296</v>
       </c>
       <c r="S14" t="n">
-        <v>11.87951014326539</v>
+        <v>11.8795101432654</v>
       </c>
       <c r="T14" t="n">
-        <v>2.282064976506604</v>
+        <v>2.282064976506605</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04170535650954384</v>
+        <v>0.04170535650954386</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,37 +32072,37 @@
         <v>2.693868486404646</v>
       </c>
       <c r="I15" t="n">
-        <v>9.603482115475234</v>
+        <v>9.603482115475236</v>
       </c>
       <c r="J15" t="n">
-        <v>26.35268894897478</v>
+        <v>26.35268894897479</v>
       </c>
       <c r="K15" t="n">
         <v>45.0409428083378</v>
       </c>
       <c r="L15" t="n">
-        <v>60.56310600338872</v>
+        <v>60.56310600338873</v>
       </c>
       <c r="M15" t="n">
-        <v>70.67428812879034</v>
+        <v>70.67428812879035</v>
       </c>
       <c r="N15" t="n">
-        <v>72.54482623765171</v>
+        <v>72.54482623765172</v>
       </c>
       <c r="O15" t="n">
-        <v>66.36434322524649</v>
+        <v>66.3643432252465</v>
       </c>
       <c r="P15" t="n">
-        <v>53.26323622210965</v>
+        <v>53.26323622210966</v>
       </c>
       <c r="Q15" t="n">
         <v>35.60506286481417</v>
       </c>
       <c r="R15" t="n">
-        <v>17.31807551932069</v>
+        <v>17.3180755193207</v>
       </c>
       <c r="S15" t="n">
-        <v>5.180986848285043</v>
+        <v>5.180986848285044</v>
       </c>
       <c r="T15" t="n">
         <v>1.124280262945444</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2338448396500808</v>
+        <v>0.2338448396500809</v>
       </c>
       <c r="H16" t="n">
         <v>2.079093210707084</v>
       </c>
       <c r="I16" t="n">
-        <v>7.032352086931524</v>
+        <v>7.032352086931525</v>
       </c>
       <c r="J16" t="n">
-        <v>16.53283016326071</v>
+        <v>16.53283016326072</v>
       </c>
       <c r="K16" t="n">
-        <v>27.16851864298211</v>
+        <v>27.16851864298212</v>
       </c>
       <c r="L16" t="n">
-        <v>34.76635006943111</v>
+        <v>34.76635006943112</v>
       </c>
       <c r="M16" t="n">
         <v>36.65624154623949</v>
       </c>
       <c r="N16" t="n">
-        <v>35.7846380529983</v>
+        <v>35.78463805299831</v>
       </c>
       <c r="O16" t="n">
-        <v>33.05290515344962</v>
+        <v>33.05290515344963</v>
       </c>
       <c r="P16" t="n">
         <v>28.28247042458795</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.58131652742631</v>
+        <v>19.58131652742632</v>
       </c>
       <c r="R16" t="n">
         <v>10.51451433553909</v>
       </c>
       <c r="S16" t="n">
-        <v>4.075277796447316</v>
+        <v>4.075277796447317</v>
       </c>
       <c r="T16" t="n">
-        <v>0.999155223959436</v>
+        <v>0.9991552239594362</v>
       </c>
       <c r="U16" t="n">
         <v>0.01275517307182261</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5213169563692982</v>
+        <v>0.5213169563692983</v>
       </c>
       <c r="H17" t="n">
-        <v>5.338937279417077</v>
+        <v>5.338937279417078</v>
       </c>
       <c r="I17" t="n">
         <v>20.09807196042739</v>
       </c>
       <c r="J17" t="n">
-        <v>44.24612502564876</v>
+        <v>44.24612502564877</v>
       </c>
       <c r="K17" t="n">
-        <v>66.31347178876116</v>
+        <v>66.31347178876118</v>
       </c>
       <c r="L17" t="n">
-        <v>82.2677255922481</v>
+        <v>82.26772559224811</v>
       </c>
       <c r="M17" t="n">
-        <v>91.53869601508059</v>
+        <v>91.53869601508062</v>
       </c>
       <c r="N17" t="n">
-        <v>93.01988781736488</v>
+        <v>93.01988781736489</v>
       </c>
       <c r="O17" t="n">
-        <v>87.83604233246766</v>
+        <v>87.83604233246767</v>
       </c>
       <c r="P17" t="n">
-        <v>74.9660299721006</v>
+        <v>74.96602997210061</v>
       </c>
       <c r="Q17" t="n">
-        <v>56.29636647212509</v>
+        <v>56.2963664721251</v>
       </c>
       <c r="R17" t="n">
-        <v>32.74717626053295</v>
+        <v>32.74717626053296</v>
       </c>
       <c r="S17" t="n">
-        <v>11.87951014326539</v>
+        <v>11.8795101432654</v>
       </c>
       <c r="T17" t="n">
-        <v>2.282064976506604</v>
+        <v>2.282064976506605</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04170535650954384</v>
+        <v>0.04170535650954386</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,37 +32309,37 @@
         <v>2.693868486404646</v>
       </c>
       <c r="I18" t="n">
-        <v>9.603482115475234</v>
+        <v>9.603482115475236</v>
       </c>
       <c r="J18" t="n">
-        <v>26.35268894897478</v>
+        <v>26.35268894897479</v>
       </c>
       <c r="K18" t="n">
         <v>45.0409428083378</v>
       </c>
       <c r="L18" t="n">
-        <v>60.56310600338872</v>
+        <v>60.56310600338873</v>
       </c>
       <c r="M18" t="n">
-        <v>70.67428812879034</v>
+        <v>70.67428812879035</v>
       </c>
       <c r="N18" t="n">
-        <v>72.54482623765171</v>
+        <v>72.54482623765172</v>
       </c>
       <c r="O18" t="n">
-        <v>66.36434322524649</v>
+        <v>66.3643432252465</v>
       </c>
       <c r="P18" t="n">
-        <v>53.26323622210965</v>
+        <v>53.26323622210966</v>
       </c>
       <c r="Q18" t="n">
         <v>35.60506286481417</v>
       </c>
       <c r="R18" t="n">
-        <v>17.31807551932069</v>
+        <v>17.3180755193207</v>
       </c>
       <c r="S18" t="n">
-        <v>5.180986848285043</v>
+        <v>5.180986848285044</v>
       </c>
       <c r="T18" t="n">
         <v>1.124280262945444</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2338448396500808</v>
+        <v>0.2338448396500809</v>
       </c>
       <c r="H19" t="n">
         <v>2.079093210707084</v>
       </c>
       <c r="I19" t="n">
-        <v>7.032352086931524</v>
+        <v>7.032352086931525</v>
       </c>
       <c r="J19" t="n">
-        <v>16.53283016326071</v>
+        <v>16.53283016326072</v>
       </c>
       <c r="K19" t="n">
-        <v>27.16851864298211</v>
+        <v>27.16851864298212</v>
       </c>
       <c r="L19" t="n">
-        <v>34.76635006943111</v>
+        <v>34.76635006943112</v>
       </c>
       <c r="M19" t="n">
         <v>36.65624154623949</v>
       </c>
       <c r="N19" t="n">
-        <v>35.7846380529983</v>
+        <v>35.78463805299831</v>
       </c>
       <c r="O19" t="n">
-        <v>33.05290515344962</v>
+        <v>33.05290515344963</v>
       </c>
       <c r="P19" t="n">
         <v>28.28247042458795</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.58131652742631</v>
+        <v>19.58131652742632</v>
       </c>
       <c r="R19" t="n">
         <v>10.51451433553909</v>
       </c>
       <c r="S19" t="n">
-        <v>4.075277796447316</v>
+        <v>4.075277796447317</v>
       </c>
       <c r="T19" t="n">
-        <v>0.999155223959436</v>
+        <v>0.9991552239594362</v>
       </c>
       <c r="U19" t="n">
         <v>0.01275517307182261</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5213169563692982</v>
+        <v>0.5213169563692983</v>
       </c>
       <c r="H20" t="n">
-        <v>5.338937279417077</v>
+        <v>5.338937279417078</v>
       </c>
       <c r="I20" t="n">
         <v>20.09807196042739</v>
       </c>
       <c r="J20" t="n">
-        <v>44.24612502564876</v>
+        <v>44.24612502564877</v>
       </c>
       <c r="K20" t="n">
-        <v>66.31347178876116</v>
+        <v>66.31347178876118</v>
       </c>
       <c r="L20" t="n">
-        <v>82.2677255922481</v>
+        <v>82.26772559224811</v>
       </c>
       <c r="M20" t="n">
-        <v>91.53869601508059</v>
+        <v>91.53869601508062</v>
       </c>
       <c r="N20" t="n">
-        <v>93.01988781736488</v>
+        <v>93.01988781736489</v>
       </c>
       <c r="O20" t="n">
-        <v>87.83604233246766</v>
+        <v>87.83604233246767</v>
       </c>
       <c r="P20" t="n">
-        <v>74.9660299721006</v>
+        <v>74.96602997210061</v>
       </c>
       <c r="Q20" t="n">
-        <v>56.29636647212509</v>
+        <v>56.2963664721251</v>
       </c>
       <c r="R20" t="n">
-        <v>32.74717626053295</v>
+        <v>32.74717626053296</v>
       </c>
       <c r="S20" t="n">
-        <v>11.87951014326539</v>
+        <v>11.8795101432654</v>
       </c>
       <c r="T20" t="n">
-        <v>2.282064976506604</v>
+        <v>2.282064976506605</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04170535650954384</v>
+        <v>0.04170535650954386</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,37 +32546,37 @@
         <v>2.693868486404646</v>
       </c>
       <c r="I21" t="n">
-        <v>9.603482115475234</v>
+        <v>9.603482115475236</v>
       </c>
       <c r="J21" t="n">
-        <v>26.35268894897478</v>
+        <v>26.35268894897479</v>
       </c>
       <c r="K21" t="n">
         <v>45.0409428083378</v>
       </c>
       <c r="L21" t="n">
-        <v>60.56310600338872</v>
+        <v>60.56310600338873</v>
       </c>
       <c r="M21" t="n">
-        <v>70.67428812879034</v>
+        <v>70.67428812879035</v>
       </c>
       <c r="N21" t="n">
-        <v>72.54482623765171</v>
+        <v>72.54482623765172</v>
       </c>
       <c r="O21" t="n">
-        <v>66.36434322524649</v>
+        <v>66.3643432252465</v>
       </c>
       <c r="P21" t="n">
-        <v>53.26323622210965</v>
+        <v>53.26323622210966</v>
       </c>
       <c r="Q21" t="n">
         <v>35.60506286481417</v>
       </c>
       <c r="R21" t="n">
-        <v>17.31807551932069</v>
+        <v>17.3180755193207</v>
       </c>
       <c r="S21" t="n">
-        <v>5.180986848285043</v>
+        <v>5.180986848285044</v>
       </c>
       <c r="T21" t="n">
         <v>1.124280262945444</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2338448396500808</v>
+        <v>0.2338448396500809</v>
       </c>
       <c r="H22" t="n">
         <v>2.079093210707084</v>
       </c>
       <c r="I22" t="n">
-        <v>7.032352086931524</v>
+        <v>7.032352086931525</v>
       </c>
       <c r="J22" t="n">
-        <v>16.53283016326071</v>
+        <v>16.53283016326072</v>
       </c>
       <c r="K22" t="n">
-        <v>27.16851864298211</v>
+        <v>27.16851864298212</v>
       </c>
       <c r="L22" t="n">
-        <v>34.76635006943111</v>
+        <v>34.76635006943112</v>
       </c>
       <c r="M22" t="n">
         <v>36.65624154623949</v>
       </c>
       <c r="N22" t="n">
-        <v>35.7846380529983</v>
+        <v>35.78463805299831</v>
       </c>
       <c r="O22" t="n">
-        <v>33.05290515344962</v>
+        <v>33.05290515344963</v>
       </c>
       <c r="P22" t="n">
         <v>28.28247042458795</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.58131652742631</v>
+        <v>19.58131652742632</v>
       </c>
       <c r="R22" t="n">
         <v>10.51451433553909</v>
       </c>
       <c r="S22" t="n">
-        <v>4.075277796447316</v>
+        <v>4.075277796447317</v>
       </c>
       <c r="T22" t="n">
-        <v>0.999155223959436</v>
+        <v>0.9991552239594362</v>
       </c>
       <c r="U22" t="n">
         <v>0.01275517307182261</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5213169563692982</v>
+        <v>0.5213169563692983</v>
       </c>
       <c r="H23" t="n">
-        <v>5.338937279417077</v>
+        <v>5.338937279417078</v>
       </c>
       <c r="I23" t="n">
         <v>20.09807196042739</v>
       </c>
       <c r="J23" t="n">
-        <v>44.24612502564876</v>
+        <v>44.24612502564877</v>
       </c>
       <c r="K23" t="n">
-        <v>66.31347178876116</v>
+        <v>66.31347178876118</v>
       </c>
       <c r="L23" t="n">
-        <v>82.2677255922481</v>
+        <v>82.26772559224811</v>
       </c>
       <c r="M23" t="n">
-        <v>91.53869601508059</v>
+        <v>91.53869601508062</v>
       </c>
       <c r="N23" t="n">
-        <v>93.01988781736488</v>
+        <v>93.01988781736489</v>
       </c>
       <c r="O23" t="n">
-        <v>87.83604233246766</v>
+        <v>87.83604233246767</v>
       </c>
       <c r="P23" t="n">
-        <v>74.9660299721006</v>
+        <v>74.96602997210061</v>
       </c>
       <c r="Q23" t="n">
-        <v>56.29636647212509</v>
+        <v>56.2963664721251</v>
       </c>
       <c r="R23" t="n">
-        <v>32.74717626053295</v>
+        <v>32.74717626053296</v>
       </c>
       <c r="S23" t="n">
-        <v>11.87951014326539</v>
+        <v>11.8795101432654</v>
       </c>
       <c r="T23" t="n">
-        <v>2.282064976506604</v>
+        <v>2.282064976506605</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04170535650954384</v>
+        <v>0.04170535650954386</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,37 +32783,37 @@
         <v>2.693868486404646</v>
       </c>
       <c r="I24" t="n">
-        <v>9.603482115475234</v>
+        <v>9.603482115475236</v>
       </c>
       <c r="J24" t="n">
-        <v>26.35268894897478</v>
+        <v>26.35268894897479</v>
       </c>
       <c r="K24" t="n">
         <v>45.0409428083378</v>
       </c>
       <c r="L24" t="n">
-        <v>60.56310600338872</v>
+        <v>60.56310600338873</v>
       </c>
       <c r="M24" t="n">
-        <v>70.67428812879034</v>
+        <v>70.67428812879035</v>
       </c>
       <c r="N24" t="n">
-        <v>72.54482623765171</v>
+        <v>72.54482623765172</v>
       </c>
       <c r="O24" t="n">
-        <v>66.36434322524649</v>
+        <v>66.3643432252465</v>
       </c>
       <c r="P24" t="n">
-        <v>53.26323622210965</v>
+        <v>53.26323622210966</v>
       </c>
       <c r="Q24" t="n">
         <v>35.60506286481417</v>
       </c>
       <c r="R24" t="n">
-        <v>17.31807551932069</v>
+        <v>17.3180755193207</v>
       </c>
       <c r="S24" t="n">
-        <v>5.180986848285043</v>
+        <v>5.180986848285044</v>
       </c>
       <c r="T24" t="n">
         <v>1.124280262945444</v>
@@ -32856,46 +32856,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2338448396500808</v>
+        <v>0.2338448396500809</v>
       </c>
       <c r="H25" t="n">
         <v>2.079093210707084</v>
       </c>
       <c r="I25" t="n">
-        <v>7.032352086931524</v>
+        <v>7.032352086931525</v>
       </c>
       <c r="J25" t="n">
-        <v>16.53283016326071</v>
+        <v>16.53283016326072</v>
       </c>
       <c r="K25" t="n">
-        <v>27.16851864298211</v>
+        <v>27.16851864298212</v>
       </c>
       <c r="L25" t="n">
-        <v>34.76635006943111</v>
+        <v>34.76635006943112</v>
       </c>
       <c r="M25" t="n">
         <v>36.65624154623949</v>
       </c>
       <c r="N25" t="n">
-        <v>35.7846380529983</v>
+        <v>35.78463805299831</v>
       </c>
       <c r="O25" t="n">
-        <v>33.05290515344962</v>
+        <v>33.05290515344963</v>
       </c>
       <c r="P25" t="n">
         <v>28.28247042458795</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.58131652742631</v>
+        <v>19.58131652742632</v>
       </c>
       <c r="R25" t="n">
         <v>10.51451433553909</v>
       </c>
       <c r="S25" t="n">
-        <v>4.075277796447316</v>
+        <v>4.075277796447317</v>
       </c>
       <c r="T25" t="n">
-        <v>0.999155223959436</v>
+        <v>0.9991552239594362</v>
       </c>
       <c r="U25" t="n">
         <v>0.01275517307182261</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5213169563692982</v>
+        <v>0.5213169563692983</v>
       </c>
       <c r="H26" t="n">
-        <v>5.338937279417077</v>
+        <v>5.338937279417078</v>
       </c>
       <c r="I26" t="n">
         <v>20.09807196042739</v>
       </c>
       <c r="J26" t="n">
-        <v>44.24612502564876</v>
+        <v>44.24612502564877</v>
       </c>
       <c r="K26" t="n">
-        <v>66.31347178876116</v>
+        <v>66.31347178876118</v>
       </c>
       <c r="L26" t="n">
-        <v>82.2677255922481</v>
+        <v>82.26772559224811</v>
       </c>
       <c r="M26" t="n">
-        <v>91.53869601508059</v>
+        <v>91.53869601508062</v>
       </c>
       <c r="N26" t="n">
-        <v>93.01988781736488</v>
+        <v>93.01988781736489</v>
       </c>
       <c r="O26" t="n">
-        <v>87.83604233246766</v>
+        <v>87.83604233246767</v>
       </c>
       <c r="P26" t="n">
-        <v>74.9660299721006</v>
+        <v>74.96602997210061</v>
       </c>
       <c r="Q26" t="n">
-        <v>56.29636647212509</v>
+        <v>56.2963664721251</v>
       </c>
       <c r="R26" t="n">
-        <v>32.74717626053295</v>
+        <v>32.74717626053296</v>
       </c>
       <c r="S26" t="n">
-        <v>11.87951014326539</v>
+        <v>11.8795101432654</v>
       </c>
       <c r="T26" t="n">
-        <v>2.282064976506604</v>
+        <v>2.282064976506605</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04170535650954384</v>
+        <v>0.04170535650954386</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,37 +33020,37 @@
         <v>2.693868486404646</v>
       </c>
       <c r="I27" t="n">
-        <v>9.603482115475234</v>
+        <v>9.603482115475236</v>
       </c>
       <c r="J27" t="n">
-        <v>26.35268894897478</v>
+        <v>26.35268894897479</v>
       </c>
       <c r="K27" t="n">
         <v>45.0409428083378</v>
       </c>
       <c r="L27" t="n">
-        <v>60.56310600338872</v>
+        <v>60.56310600338873</v>
       </c>
       <c r="M27" t="n">
-        <v>70.67428812879034</v>
+        <v>70.67428812879035</v>
       </c>
       <c r="N27" t="n">
-        <v>72.54482623765171</v>
+        <v>72.54482623765172</v>
       </c>
       <c r="O27" t="n">
-        <v>66.36434322524649</v>
+        <v>66.3643432252465</v>
       </c>
       <c r="P27" t="n">
-        <v>53.26323622210965</v>
+        <v>53.26323622210966</v>
       </c>
       <c r="Q27" t="n">
         <v>35.60506286481417</v>
       </c>
       <c r="R27" t="n">
-        <v>17.31807551932069</v>
+        <v>17.3180755193207</v>
       </c>
       <c r="S27" t="n">
-        <v>5.180986848285043</v>
+        <v>5.180986848285044</v>
       </c>
       <c r="T27" t="n">
         <v>1.124280262945444</v>
@@ -33093,46 +33093,46 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2338448396500808</v>
+        <v>0.2338448396500809</v>
       </c>
       <c r="H28" t="n">
         <v>2.079093210707084</v>
       </c>
       <c r="I28" t="n">
-        <v>7.032352086931524</v>
+        <v>7.032352086931525</v>
       </c>
       <c r="J28" t="n">
-        <v>16.53283016326071</v>
+        <v>16.53283016326072</v>
       </c>
       <c r="K28" t="n">
-        <v>27.16851864298211</v>
+        <v>27.16851864298212</v>
       </c>
       <c r="L28" t="n">
-        <v>34.76635006943111</v>
+        <v>34.76635006943112</v>
       </c>
       <c r="M28" t="n">
         <v>36.65624154623949</v>
       </c>
       <c r="N28" t="n">
-        <v>35.7846380529983</v>
+        <v>35.78463805299831</v>
       </c>
       <c r="O28" t="n">
-        <v>33.05290515344962</v>
+        <v>33.05290515344963</v>
       </c>
       <c r="P28" t="n">
         <v>28.28247042458795</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.58131652742631</v>
+        <v>19.58131652742632</v>
       </c>
       <c r="R28" t="n">
         <v>10.51451433553909</v>
       </c>
       <c r="S28" t="n">
-        <v>4.075277796447316</v>
+        <v>4.075277796447317</v>
       </c>
       <c r="T28" t="n">
-        <v>0.999155223959436</v>
+        <v>0.9991552239594362</v>
       </c>
       <c r="U28" t="n">
         <v>0.01275517307182261</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5213169563692982</v>
+        <v>0.5213169563692983</v>
       </c>
       <c r="H29" t="n">
-        <v>5.338937279417077</v>
+        <v>5.338937279417078</v>
       </c>
       <c r="I29" t="n">
         <v>20.09807196042739</v>
       </c>
       <c r="J29" t="n">
-        <v>44.24612502564876</v>
+        <v>44.24612502564877</v>
       </c>
       <c r="K29" t="n">
-        <v>66.31347178876116</v>
+        <v>66.31347178876118</v>
       </c>
       <c r="L29" t="n">
-        <v>82.2677255922481</v>
+        <v>82.26772559224811</v>
       </c>
       <c r="M29" t="n">
-        <v>91.53869601508059</v>
+        <v>91.53869601508062</v>
       </c>
       <c r="N29" t="n">
-        <v>93.01988781736488</v>
+        <v>93.01988781736489</v>
       </c>
       <c r="O29" t="n">
-        <v>87.83604233246766</v>
+        <v>87.83604233246767</v>
       </c>
       <c r="P29" t="n">
-        <v>74.9660299721006</v>
+        <v>74.96602997210061</v>
       </c>
       <c r="Q29" t="n">
-        <v>56.29636647212509</v>
+        <v>56.2963664721251</v>
       </c>
       <c r="R29" t="n">
-        <v>32.74717626053295</v>
+        <v>32.74717626053296</v>
       </c>
       <c r="S29" t="n">
-        <v>11.87951014326539</v>
+        <v>11.8795101432654</v>
       </c>
       <c r="T29" t="n">
-        <v>2.282064976506604</v>
+        <v>2.282064976506605</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04170535650954384</v>
+        <v>0.04170535650954386</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,37 +33257,37 @@
         <v>2.693868486404646</v>
       </c>
       <c r="I30" t="n">
-        <v>9.603482115475234</v>
+        <v>9.603482115475236</v>
       </c>
       <c r="J30" t="n">
-        <v>26.35268894897478</v>
+        <v>26.35268894897479</v>
       </c>
       <c r="K30" t="n">
         <v>45.0409428083378</v>
       </c>
       <c r="L30" t="n">
-        <v>60.56310600338872</v>
+        <v>60.56310600338873</v>
       </c>
       <c r="M30" t="n">
-        <v>70.67428812879034</v>
+        <v>70.67428812879035</v>
       </c>
       <c r="N30" t="n">
-        <v>72.54482623765171</v>
+        <v>72.54482623765172</v>
       </c>
       <c r="O30" t="n">
-        <v>66.36434322524649</v>
+        <v>66.3643432252465</v>
       </c>
       <c r="P30" t="n">
-        <v>53.26323622210965</v>
+        <v>53.26323622210966</v>
       </c>
       <c r="Q30" t="n">
         <v>35.60506286481417</v>
       </c>
       <c r="R30" t="n">
-        <v>17.31807551932069</v>
+        <v>17.3180755193207</v>
       </c>
       <c r="S30" t="n">
-        <v>5.180986848285043</v>
+        <v>5.180986848285044</v>
       </c>
       <c r="T30" t="n">
         <v>1.124280262945444</v>
@@ -33330,46 +33330,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2338448396500808</v>
+        <v>0.2338448396500809</v>
       </c>
       <c r="H31" t="n">
         <v>2.079093210707084</v>
       </c>
       <c r="I31" t="n">
-        <v>7.032352086931524</v>
+        <v>7.032352086931525</v>
       </c>
       <c r="J31" t="n">
-        <v>16.53283016326071</v>
+        <v>16.53283016326072</v>
       </c>
       <c r="K31" t="n">
-        <v>27.16851864298211</v>
+        <v>27.16851864298212</v>
       </c>
       <c r="L31" t="n">
-        <v>34.76635006943111</v>
+        <v>34.76635006943112</v>
       </c>
       <c r="M31" t="n">
         <v>36.65624154623949</v>
       </c>
       <c r="N31" t="n">
-        <v>35.7846380529983</v>
+        <v>35.78463805299831</v>
       </c>
       <c r="O31" t="n">
-        <v>33.05290515344962</v>
+        <v>33.05290515344963</v>
       </c>
       <c r="P31" t="n">
         <v>28.28247042458795</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.58131652742631</v>
+        <v>19.58131652742632</v>
       </c>
       <c r="R31" t="n">
         <v>10.51451433553909</v>
       </c>
       <c r="S31" t="n">
-        <v>4.075277796447316</v>
+        <v>4.075277796447317</v>
       </c>
       <c r="T31" t="n">
-        <v>0.999155223959436</v>
+        <v>0.9991552239594362</v>
       </c>
       <c r="U31" t="n">
         <v>0.01275517307182261</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5213169563692982</v>
+        <v>0.5213169563692983</v>
       </c>
       <c r="H32" t="n">
-        <v>5.338937279417077</v>
+        <v>5.338937279417078</v>
       </c>
       <c r="I32" t="n">
         <v>20.09807196042739</v>
       </c>
       <c r="J32" t="n">
-        <v>44.24612502564876</v>
+        <v>44.24612502564877</v>
       </c>
       <c r="K32" t="n">
-        <v>66.31347178876116</v>
+        <v>66.31347178876118</v>
       </c>
       <c r="L32" t="n">
-        <v>82.2677255922481</v>
+        <v>82.26772559224811</v>
       </c>
       <c r="M32" t="n">
-        <v>91.53869601508059</v>
+        <v>91.53869601508062</v>
       </c>
       <c r="N32" t="n">
-        <v>93.01988781736488</v>
+        <v>93.01988781736489</v>
       </c>
       <c r="O32" t="n">
-        <v>87.83604233246766</v>
+        <v>87.83604233246767</v>
       </c>
       <c r="P32" t="n">
-        <v>74.9660299721006</v>
+        <v>74.96602997210061</v>
       </c>
       <c r="Q32" t="n">
-        <v>56.29636647212509</v>
+        <v>56.2963664721251</v>
       </c>
       <c r="R32" t="n">
-        <v>32.74717626053295</v>
+        <v>32.74717626053296</v>
       </c>
       <c r="S32" t="n">
-        <v>11.87951014326539</v>
+        <v>11.8795101432654</v>
       </c>
       <c r="T32" t="n">
-        <v>2.282064976506604</v>
+        <v>2.282064976506605</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04170535650954384</v>
+        <v>0.04170535650954386</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,37 +33494,37 @@
         <v>2.693868486404646</v>
       </c>
       <c r="I33" t="n">
-        <v>9.603482115475234</v>
+        <v>9.603482115475236</v>
       </c>
       <c r="J33" t="n">
-        <v>26.35268894897478</v>
+        <v>26.35268894897479</v>
       </c>
       <c r="K33" t="n">
         <v>45.0409428083378</v>
       </c>
       <c r="L33" t="n">
-        <v>60.56310600338872</v>
+        <v>60.56310600338873</v>
       </c>
       <c r="M33" t="n">
-        <v>70.67428812879034</v>
+        <v>70.67428812879035</v>
       </c>
       <c r="N33" t="n">
-        <v>72.54482623765171</v>
+        <v>72.54482623765172</v>
       </c>
       <c r="O33" t="n">
-        <v>66.36434322524649</v>
+        <v>66.3643432252465</v>
       </c>
       <c r="P33" t="n">
-        <v>53.26323622210965</v>
+        <v>53.26323622210966</v>
       </c>
       <c r="Q33" t="n">
         <v>35.60506286481417</v>
       </c>
       <c r="R33" t="n">
-        <v>17.31807551932069</v>
+        <v>17.3180755193207</v>
       </c>
       <c r="S33" t="n">
-        <v>5.180986848285043</v>
+        <v>5.180986848285044</v>
       </c>
       <c r="T33" t="n">
         <v>1.124280262945444</v>
@@ -33567,46 +33567,46 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2338448396500808</v>
+        <v>0.2338448396500809</v>
       </c>
       <c r="H34" t="n">
         <v>2.079093210707084</v>
       </c>
       <c r="I34" t="n">
-        <v>7.032352086931524</v>
+        <v>7.032352086931525</v>
       </c>
       <c r="J34" t="n">
-        <v>16.53283016326071</v>
+        <v>16.53283016326072</v>
       </c>
       <c r="K34" t="n">
-        <v>27.16851864298211</v>
+        <v>27.16851864298212</v>
       </c>
       <c r="L34" t="n">
-        <v>34.76635006943111</v>
+        <v>34.76635006943112</v>
       </c>
       <c r="M34" t="n">
         <v>36.65624154623949</v>
       </c>
       <c r="N34" t="n">
-        <v>35.7846380529983</v>
+        <v>35.78463805299831</v>
       </c>
       <c r="O34" t="n">
-        <v>33.05290515344962</v>
+        <v>33.05290515344963</v>
       </c>
       <c r="P34" t="n">
         <v>28.28247042458795</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.58131652742631</v>
+        <v>19.58131652742632</v>
       </c>
       <c r="R34" t="n">
         <v>10.51451433553909</v>
       </c>
       <c r="S34" t="n">
-        <v>4.075277796447316</v>
+        <v>4.075277796447317</v>
       </c>
       <c r="T34" t="n">
-        <v>0.999155223959436</v>
+        <v>0.9991552239594362</v>
       </c>
       <c r="U34" t="n">
         <v>0.01275517307182261</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5213169563692982</v>
+        <v>0.5213169563692983</v>
       </c>
       <c r="H35" t="n">
-        <v>5.338937279417077</v>
+        <v>5.338937279417078</v>
       </c>
       <c r="I35" t="n">
         <v>20.09807196042739</v>
       </c>
       <c r="J35" t="n">
-        <v>44.24612502564876</v>
+        <v>44.24612502564877</v>
       </c>
       <c r="K35" t="n">
-        <v>66.31347178876116</v>
+        <v>66.31347178876118</v>
       </c>
       <c r="L35" t="n">
-        <v>82.2677255922481</v>
+        <v>82.26772559224811</v>
       </c>
       <c r="M35" t="n">
-        <v>91.53869601508059</v>
+        <v>91.53869601508062</v>
       </c>
       <c r="N35" t="n">
-        <v>93.01988781736488</v>
+        <v>93.01988781736489</v>
       </c>
       <c r="O35" t="n">
-        <v>87.83604233246766</v>
+        <v>87.83604233246767</v>
       </c>
       <c r="P35" t="n">
-        <v>74.9660299721006</v>
+        <v>74.96602997210061</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.29636647212509</v>
+        <v>56.2963664721251</v>
       </c>
       <c r="R35" t="n">
-        <v>32.74717626053295</v>
+        <v>32.74717626053296</v>
       </c>
       <c r="S35" t="n">
-        <v>11.87951014326539</v>
+        <v>11.8795101432654</v>
       </c>
       <c r="T35" t="n">
-        <v>2.282064976506604</v>
+        <v>2.282064976506605</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04170535650954384</v>
+        <v>0.04170535650954386</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,37 +33731,37 @@
         <v>2.693868486404646</v>
       </c>
       <c r="I36" t="n">
-        <v>9.603482115475234</v>
+        <v>9.603482115475236</v>
       </c>
       <c r="J36" t="n">
-        <v>26.35268894897478</v>
+        <v>26.35268894897479</v>
       </c>
       <c r="K36" t="n">
         <v>45.0409428083378</v>
       </c>
       <c r="L36" t="n">
-        <v>60.56310600338872</v>
+        <v>60.56310600338873</v>
       </c>
       <c r="M36" t="n">
-        <v>70.67428812879034</v>
+        <v>70.67428812879035</v>
       </c>
       <c r="N36" t="n">
-        <v>72.54482623765171</v>
+        <v>72.54482623765172</v>
       </c>
       <c r="O36" t="n">
-        <v>66.36434322524649</v>
+        <v>66.3643432252465</v>
       </c>
       <c r="P36" t="n">
-        <v>53.26323622210965</v>
+        <v>53.26323622210966</v>
       </c>
       <c r="Q36" t="n">
         <v>35.60506286481417</v>
       </c>
       <c r="R36" t="n">
-        <v>17.31807551932069</v>
+        <v>17.3180755193207</v>
       </c>
       <c r="S36" t="n">
-        <v>5.180986848285043</v>
+        <v>5.180986848285044</v>
       </c>
       <c r="T36" t="n">
         <v>1.124280262945444</v>
@@ -33804,46 +33804,46 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2338448396500808</v>
+        <v>0.2338448396500809</v>
       </c>
       <c r="H37" t="n">
         <v>2.079093210707084</v>
       </c>
       <c r="I37" t="n">
-        <v>7.032352086931524</v>
+        <v>7.032352086931525</v>
       </c>
       <c r="J37" t="n">
-        <v>16.53283016326071</v>
+        <v>16.53283016326072</v>
       </c>
       <c r="K37" t="n">
-        <v>27.16851864298211</v>
+        <v>27.16851864298212</v>
       </c>
       <c r="L37" t="n">
-        <v>34.76635006943111</v>
+        <v>34.76635006943112</v>
       </c>
       <c r="M37" t="n">
         <v>36.65624154623949</v>
       </c>
       <c r="N37" t="n">
-        <v>35.7846380529983</v>
+        <v>35.78463805299831</v>
       </c>
       <c r="O37" t="n">
-        <v>33.05290515344962</v>
+        <v>33.05290515344963</v>
       </c>
       <c r="P37" t="n">
         <v>28.28247042458795</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.58131652742631</v>
+        <v>19.58131652742632</v>
       </c>
       <c r="R37" t="n">
         <v>10.51451433553909</v>
       </c>
       <c r="S37" t="n">
-        <v>4.075277796447316</v>
+        <v>4.075277796447317</v>
       </c>
       <c r="T37" t="n">
-        <v>0.999155223959436</v>
+        <v>0.9991552239594362</v>
       </c>
       <c r="U37" t="n">
         <v>0.01275517307182261</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5213169563692982</v>
+        <v>0.5213169563692983</v>
       </c>
       <c r="H38" t="n">
-        <v>5.338937279417077</v>
+        <v>5.338937279417078</v>
       </c>
       <c r="I38" t="n">
         <v>20.09807196042739</v>
       </c>
       <c r="J38" t="n">
-        <v>44.24612502564876</v>
+        <v>44.24612502564877</v>
       </c>
       <c r="K38" t="n">
-        <v>66.31347178876116</v>
+        <v>66.31347178876118</v>
       </c>
       <c r="L38" t="n">
-        <v>82.2677255922481</v>
+        <v>82.26772559224811</v>
       </c>
       <c r="M38" t="n">
-        <v>91.53869601508059</v>
+        <v>91.53869601508062</v>
       </c>
       <c r="N38" t="n">
-        <v>93.01988781736488</v>
+        <v>93.01988781736489</v>
       </c>
       <c r="O38" t="n">
-        <v>87.83604233246766</v>
+        <v>87.83604233246767</v>
       </c>
       <c r="P38" t="n">
-        <v>74.9660299721006</v>
+        <v>74.96602997210061</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.29636647212509</v>
+        <v>56.2963664721251</v>
       </c>
       <c r="R38" t="n">
-        <v>32.74717626053295</v>
+        <v>32.74717626053296</v>
       </c>
       <c r="S38" t="n">
-        <v>11.87951014326539</v>
+        <v>11.8795101432654</v>
       </c>
       <c r="T38" t="n">
-        <v>2.282064976506604</v>
+        <v>2.282064976506605</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04170535650954384</v>
+        <v>0.04170535650954386</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,37 +33968,37 @@
         <v>2.693868486404646</v>
       </c>
       <c r="I39" t="n">
-        <v>9.603482115475234</v>
+        <v>9.603482115475236</v>
       </c>
       <c r="J39" t="n">
-        <v>26.35268894897478</v>
+        <v>26.35268894897479</v>
       </c>
       <c r="K39" t="n">
         <v>45.0409428083378</v>
       </c>
       <c r="L39" t="n">
-        <v>60.56310600338872</v>
+        <v>60.56310600338873</v>
       </c>
       <c r="M39" t="n">
-        <v>70.67428812879034</v>
+        <v>70.67428812879035</v>
       </c>
       <c r="N39" t="n">
-        <v>72.54482623765171</v>
+        <v>72.54482623765172</v>
       </c>
       <c r="O39" t="n">
-        <v>66.36434322524649</v>
+        <v>66.3643432252465</v>
       </c>
       <c r="P39" t="n">
-        <v>53.26323622210965</v>
+        <v>53.26323622210966</v>
       </c>
       <c r="Q39" t="n">
         <v>35.60506286481417</v>
       </c>
       <c r="R39" t="n">
-        <v>17.31807551932069</v>
+        <v>17.3180755193207</v>
       </c>
       <c r="S39" t="n">
-        <v>5.180986848285043</v>
+        <v>5.180986848285044</v>
       </c>
       <c r="T39" t="n">
         <v>1.124280262945444</v>
@@ -34041,46 +34041,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2338448396500808</v>
+        <v>0.2338448396500809</v>
       </c>
       <c r="H40" t="n">
         <v>2.079093210707084</v>
       </c>
       <c r="I40" t="n">
-        <v>7.032352086931524</v>
+        <v>7.032352086931525</v>
       </c>
       <c r="J40" t="n">
-        <v>16.53283016326071</v>
+        <v>16.53283016326072</v>
       </c>
       <c r="K40" t="n">
-        <v>27.16851864298211</v>
+        <v>27.16851864298212</v>
       </c>
       <c r="L40" t="n">
-        <v>34.76635006943111</v>
+        <v>34.76635006943112</v>
       </c>
       <c r="M40" t="n">
         <v>36.65624154623949</v>
       </c>
       <c r="N40" t="n">
-        <v>35.7846380529983</v>
+        <v>35.78463805299831</v>
       </c>
       <c r="O40" t="n">
-        <v>33.05290515344962</v>
+        <v>33.05290515344963</v>
       </c>
       <c r="P40" t="n">
         <v>28.28247042458795</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.58131652742631</v>
+        <v>19.58131652742632</v>
       </c>
       <c r="R40" t="n">
         <v>10.51451433553909</v>
       </c>
       <c r="S40" t="n">
-        <v>4.075277796447316</v>
+        <v>4.075277796447317</v>
       </c>
       <c r="T40" t="n">
-        <v>0.999155223959436</v>
+        <v>0.9991552239594362</v>
       </c>
       <c r="U40" t="n">
         <v>0.01275517307182261</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5213169563692982</v>
+        <v>0.5213169563692983</v>
       </c>
       <c r="H41" t="n">
-        <v>5.338937279417077</v>
+        <v>5.338937279417078</v>
       </c>
       <c r="I41" t="n">
         <v>20.09807196042739</v>
       </c>
       <c r="J41" t="n">
-        <v>44.24612502564876</v>
+        <v>44.24612502564877</v>
       </c>
       <c r="K41" t="n">
-        <v>66.31347178876116</v>
+        <v>66.31347178876118</v>
       </c>
       <c r="L41" t="n">
-        <v>82.2677255922481</v>
+        <v>82.26772559224811</v>
       </c>
       <c r="M41" t="n">
-        <v>91.53869601508059</v>
+        <v>91.53869601508062</v>
       </c>
       <c r="N41" t="n">
-        <v>93.01988781736488</v>
+        <v>93.01988781736489</v>
       </c>
       <c r="O41" t="n">
-        <v>87.83604233246766</v>
+        <v>87.83604233246767</v>
       </c>
       <c r="P41" t="n">
-        <v>74.9660299721006</v>
+        <v>74.96602997210061</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.29636647212509</v>
+        <v>56.2963664721251</v>
       </c>
       <c r="R41" t="n">
-        <v>32.74717626053295</v>
+        <v>32.74717626053296</v>
       </c>
       <c r="S41" t="n">
-        <v>11.87951014326539</v>
+        <v>11.8795101432654</v>
       </c>
       <c r="T41" t="n">
-        <v>2.282064976506604</v>
+        <v>2.282064976506605</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04170535650954384</v>
+        <v>0.04170535650954386</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,37 +34205,37 @@
         <v>2.693868486404646</v>
       </c>
       <c r="I42" t="n">
-        <v>9.603482115475234</v>
+        <v>9.603482115475236</v>
       </c>
       <c r="J42" t="n">
-        <v>26.35268894897478</v>
+        <v>26.35268894897479</v>
       </c>
       <c r="K42" t="n">
         <v>45.0409428083378</v>
       </c>
       <c r="L42" t="n">
-        <v>60.56310600338872</v>
+        <v>60.56310600338873</v>
       </c>
       <c r="M42" t="n">
-        <v>70.67428812879034</v>
+        <v>70.67428812879035</v>
       </c>
       <c r="N42" t="n">
-        <v>72.54482623765171</v>
+        <v>72.54482623765172</v>
       </c>
       <c r="O42" t="n">
-        <v>66.36434322524649</v>
+        <v>66.3643432252465</v>
       </c>
       <c r="P42" t="n">
-        <v>53.26323622210965</v>
+        <v>53.26323622210966</v>
       </c>
       <c r="Q42" t="n">
         <v>35.60506286481417</v>
       </c>
       <c r="R42" t="n">
-        <v>17.31807551932069</v>
+        <v>17.3180755193207</v>
       </c>
       <c r="S42" t="n">
-        <v>5.180986848285043</v>
+        <v>5.180986848285044</v>
       </c>
       <c r="T42" t="n">
         <v>1.124280262945444</v>
@@ -34278,46 +34278,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2338448396500808</v>
+        <v>0.2338448396500809</v>
       </c>
       <c r="H43" t="n">
         <v>2.079093210707084</v>
       </c>
       <c r="I43" t="n">
-        <v>7.032352086931524</v>
+        <v>7.032352086931525</v>
       </c>
       <c r="J43" t="n">
-        <v>16.53283016326071</v>
+        <v>16.53283016326072</v>
       </c>
       <c r="K43" t="n">
-        <v>27.16851864298211</v>
+        <v>27.16851864298212</v>
       </c>
       <c r="L43" t="n">
-        <v>34.76635006943111</v>
+        <v>34.76635006943112</v>
       </c>
       <c r="M43" t="n">
         <v>36.65624154623949</v>
       </c>
       <c r="N43" t="n">
-        <v>35.7846380529983</v>
+        <v>35.78463805299831</v>
       </c>
       <c r="O43" t="n">
-        <v>33.05290515344962</v>
+        <v>33.05290515344963</v>
       </c>
       <c r="P43" t="n">
         <v>28.28247042458795</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.58131652742631</v>
+        <v>19.58131652742632</v>
       </c>
       <c r="R43" t="n">
         <v>10.51451433553909</v>
       </c>
       <c r="S43" t="n">
-        <v>4.075277796447316</v>
+        <v>4.075277796447317</v>
       </c>
       <c r="T43" t="n">
-        <v>0.999155223959436</v>
+        <v>0.9991552239594362</v>
       </c>
       <c r="U43" t="n">
         <v>0.01275517307182261</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5213169563692982</v>
+        <v>0.5213169563692983</v>
       </c>
       <c r="H44" t="n">
-        <v>5.338937279417077</v>
+        <v>5.338937279417078</v>
       </c>
       <c r="I44" t="n">
         <v>20.09807196042739</v>
       </c>
       <c r="J44" t="n">
-        <v>44.24612502564876</v>
+        <v>44.24612502564877</v>
       </c>
       <c r="K44" t="n">
-        <v>66.31347178876116</v>
+        <v>66.31347178876118</v>
       </c>
       <c r="L44" t="n">
-        <v>82.2677255922481</v>
+        <v>82.26772559224811</v>
       </c>
       <c r="M44" t="n">
-        <v>91.53869601508059</v>
+        <v>91.53869601508062</v>
       </c>
       <c r="N44" t="n">
-        <v>93.01988781736488</v>
+        <v>93.01988781736489</v>
       </c>
       <c r="O44" t="n">
-        <v>87.83604233246766</v>
+        <v>87.83604233246767</v>
       </c>
       <c r="P44" t="n">
-        <v>74.9660299721006</v>
+        <v>74.96602997210061</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.29636647212509</v>
+        <v>56.2963664721251</v>
       </c>
       <c r="R44" t="n">
-        <v>32.74717626053295</v>
+        <v>32.74717626053296</v>
       </c>
       <c r="S44" t="n">
-        <v>11.87951014326539</v>
+        <v>11.8795101432654</v>
       </c>
       <c r="T44" t="n">
-        <v>2.282064976506604</v>
+        <v>2.282064976506605</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04170535650954384</v>
+        <v>0.04170535650954386</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,37 +34442,37 @@
         <v>2.693868486404646</v>
       </c>
       <c r="I45" t="n">
-        <v>9.603482115475234</v>
+        <v>9.603482115475236</v>
       </c>
       <c r="J45" t="n">
-        <v>26.35268894897478</v>
+        <v>26.35268894897479</v>
       </c>
       <c r="K45" t="n">
         <v>45.0409428083378</v>
       </c>
       <c r="L45" t="n">
-        <v>60.56310600338872</v>
+        <v>60.56310600338873</v>
       </c>
       <c r="M45" t="n">
-        <v>70.67428812879034</v>
+        <v>70.67428812879035</v>
       </c>
       <c r="N45" t="n">
-        <v>72.54482623765171</v>
+        <v>72.54482623765172</v>
       </c>
       <c r="O45" t="n">
-        <v>66.36434322524649</v>
+        <v>66.3643432252465</v>
       </c>
       <c r="P45" t="n">
-        <v>53.26323622210965</v>
+        <v>53.26323622210966</v>
       </c>
       <c r="Q45" t="n">
         <v>35.60506286481417</v>
       </c>
       <c r="R45" t="n">
-        <v>17.31807551932069</v>
+        <v>17.3180755193207</v>
       </c>
       <c r="S45" t="n">
-        <v>5.180986848285043</v>
+        <v>5.180986848285044</v>
       </c>
       <c r="T45" t="n">
         <v>1.124280262945444</v>
@@ -34515,46 +34515,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2338448396500808</v>
+        <v>0.2338448396500809</v>
       </c>
       <c r="H46" t="n">
         <v>2.079093210707084</v>
       </c>
       <c r="I46" t="n">
-        <v>7.032352086931524</v>
+        <v>7.032352086931525</v>
       </c>
       <c r="J46" t="n">
-        <v>16.53283016326071</v>
+        <v>16.53283016326072</v>
       </c>
       <c r="K46" t="n">
-        <v>27.16851864298211</v>
+        <v>27.16851864298212</v>
       </c>
       <c r="L46" t="n">
-        <v>34.76635006943111</v>
+        <v>34.76635006943112</v>
       </c>
       <c r="M46" t="n">
         <v>36.65624154623949</v>
       </c>
       <c r="N46" t="n">
-        <v>35.7846380529983</v>
+        <v>35.78463805299831</v>
       </c>
       <c r="O46" t="n">
-        <v>33.05290515344962</v>
+        <v>33.05290515344963</v>
       </c>
       <c r="P46" t="n">
         <v>28.28247042458795</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.58131652742631</v>
+        <v>19.58131652742632</v>
       </c>
       <c r="R46" t="n">
         <v>10.51451433553909</v>
       </c>
       <c r="S46" t="n">
-        <v>4.075277796447316</v>
+        <v>4.075277796447317</v>
       </c>
       <c r="T46" t="n">
-        <v>0.999155223959436</v>
+        <v>0.9991552239594362</v>
       </c>
       <c r="U46" t="n">
         <v>0.01275517307182261</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>32.29683567103626</v>
       </c>
       <c r="K11" t="n">
-        <v>170.3690333149453</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>53.46866769645877</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>198.6988396730519</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>191.5408653403679</v>
       </c>
       <c r="O11" t="n">
         <v>198.6988396730519</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>25.60609762271692</v>
+        <v>25.60609762271693</v>
       </c>
       <c r="K12" t="n">
-        <v>59.36392958930728</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>198.6988396730519</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="O12" t="n">
-        <v>198.6988396730519</v>
+        <v>165.0645061039491</v>
       </c>
       <c r="P12" t="n">
         <v>198.6988396730519</v>
       </c>
       <c r="Q12" t="n">
-        <v>105.7005765146417</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35547,10 +35547,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>30.01584943355792</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>32.1973598052011</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -35562,19 +35562,19 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>30.21319961144349</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>101.8049724983582</v>
       </c>
       <c r="K13" t="n">
-        <v>4.899026817099259</v>
+        <v>10.68040889078306</v>
       </c>
       <c r="L13" t="n">
-        <v>62.35637532974725</v>
+        <v>62.35637532974726</v>
       </c>
       <c r="M13" t="n">
-        <v>76.24011850808007</v>
+        <v>76.24011850808009</v>
       </c>
       <c r="N13" t="n">
         <v>79.9168104322269</v>
@@ -35583,7 +35583,7 @@
         <v>57.6380330674893</v>
       </c>
       <c r="P13" t="n">
-        <v>165.1473938888391</v>
+        <v>25.56102968948144</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>32.29683567103626</v>
       </c>
       <c r="K14" t="n">
-        <v>170.3690333149453</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35659,13 +35659,13 @@
         <v>198.6988396730519</v>
       </c>
       <c r="O14" t="n">
-        <v>7.163000438878489</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="P14" t="n">
-        <v>165.5317423883137</v>
+        <v>158.3737680556298</v>
       </c>
       <c r="Q14" t="n">
-        <v>46.30566725758028</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>25.60609762271692</v>
+        <v>25.60609762271693</v>
       </c>
       <c r="K15" t="n">
         <v>171.6647408465574</v>
@@ -35732,19 +35732,19 @@
         <v>198.6988396730519</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>198.6988396730519</v>
       </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
       <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>86.39802841580179</v>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
       <c r="Q15" t="n">
-        <v>105.7005765146417</v>
+        <v>105.7005765146418</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35781,7 +35781,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>11.38450135314238</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -35799,19 +35799,19 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>30.21319961144346</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>33.45709946749636</v>
       </c>
       <c r="K16" t="n">
-        <v>4.899026817099259</v>
+        <v>4.899026817099266</v>
       </c>
       <c r="L16" t="n">
-        <v>62.35637532974725</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="M16" t="n">
-        <v>192.5895359441559</v>
+        <v>76.24011850808009</v>
       </c>
       <c r="N16" t="n">
         <v>79.9168104322269</v>
@@ -35820,13 +35820,13 @@
         <v>57.6380330674893</v>
       </c>
       <c r="P16" t="n">
-        <v>25.56102968948143</v>
+        <v>25.56102968948144</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>11.85244541013982</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>32.29683567103624</v>
+        <v>7.163000438878416</v>
       </c>
       <c r="K17" t="n">
-        <v>170.3690333149453</v>
+        <v>170.3690333149454</v>
       </c>
       <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
         <v>198.6988396730519</v>
-      </c>
-      <c r="M17" t="n">
-        <v>21.17183202542256</v>
       </c>
       <c r="N17" t="n">
         <v>198.6988396730519</v>
@@ -35902,7 +35902,7 @@
         <v>165.5317423883137</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>46.3056672575803</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>25.60609762271692</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>171.6647408465574</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>198.6988396730519</v>
@@ -35972,16 +35972,16 @@
         <v>198.6988396730519</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>86.39802841580179</v>
+        <v>190.670603726666</v>
       </c>
       <c r="Q18" t="n">
-        <v>105.7005765146417</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,13 +36042,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>4.899026817099259</v>
+        <v>4.899026817099266</v>
       </c>
       <c r="L19" t="n">
-        <v>62.35637532974725</v>
+        <v>62.35637532974726</v>
       </c>
       <c r="M19" t="n">
-        <v>76.24011850808007</v>
+        <v>76.24011850808009</v>
       </c>
       <c r="N19" t="n">
         <v>79.9168104322269</v>
@@ -36057,7 +36057,7 @@
         <v>57.6380330674893</v>
       </c>
       <c r="P19" t="n">
-        <v>25.56102968948143</v>
+        <v>25.56102968948144</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>32.29683567103624</v>
+        <v>32.29683567103626</v>
       </c>
       <c r="K20" t="n">
-        <v>170.3690333149453</v>
+        <v>170.3690333149454</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>21.17183202542251</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>198.6988396730519</v>
-      </c>
-      <c r="N20" t="n">
-        <v>140.3979071561562</v>
       </c>
       <c r="O20" t="n">
         <v>198.6988396730519</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>165.5317423883137</v>
       </c>
       <c r="Q20" t="n">
-        <v>46.30566725758028</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>25.60609762271693</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>171.6647408465574</v>
       </c>
       <c r="L21" t="n">
         <v>198.6988396730519</v>
       </c>
       <c r="M21" t="n">
-        <v>198.6988396730519</v>
+        <v>86.39802841580179</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>84.97002721202416</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>198.6988396730519</v>
       </c>
       <c r="Q21" t="n">
-        <v>105.7005765146417</v>
+        <v>105.7005765146418</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,13 +36279,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>4.899026817099259</v>
+        <v>4.899026817099266</v>
       </c>
       <c r="L22" t="n">
-        <v>62.35637532974725</v>
+        <v>62.35637532974726</v>
       </c>
       <c r="M22" t="n">
-        <v>76.24011850808007</v>
+        <v>76.24011850808009</v>
       </c>
       <c r="N22" t="n">
         <v>79.9168104322269</v>
@@ -36294,7 +36294,7 @@
         <v>57.6380330674893</v>
       </c>
       <c r="P22" t="n">
-        <v>25.56102968948143</v>
+        <v>25.56102968948144</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>32.29683567103624</v>
+        <v>32.29683567103626</v>
       </c>
       <c r="K23" t="n">
-        <v>170.3690333149453</v>
+        <v>170.3690333149454</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>173.5650044408942</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="O23" t="n">
-        <v>198.6988396730519</v>
+        <v>140.3979071561559</v>
       </c>
       <c r="P23" t="n">
-        <v>165.5317423883137</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>46.30566725758028</v>
+        <v>46.3056672575803</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>25.60609762271692</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>171.6647408465574</v>
+        <v>84.97002721202421</v>
       </c>
       <c r="L24" t="n">
         <v>198.6988396730519</v>
@@ -36446,7 +36446,7 @@
         <v>198.6988396730519</v>
       </c>
       <c r="N24" t="n">
-        <v>86.39802841580179</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>105.7005765146417</v>
+        <v>105.7005765146418</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,13 +36516,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>4.899026817099259</v>
+        <v>4.899026817099266</v>
       </c>
       <c r="L25" t="n">
-        <v>62.35637532974725</v>
+        <v>62.35637532974726</v>
       </c>
       <c r="M25" t="n">
-        <v>76.24011850808007</v>
+        <v>76.24011850808009</v>
       </c>
       <c r="N25" t="n">
         <v>79.9168104322269</v>
@@ -36531,7 +36531,7 @@
         <v>57.6380330674893</v>
       </c>
       <c r="P25" t="n">
-        <v>25.56102968948143</v>
+        <v>25.56102968948144</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>181.2989258938927</v>
+        <v>181.2989258938928</v>
       </c>
       <c r="K26" t="n">
         <v>319.3711235378019</v>
@@ -36607,7 +36607,7 @@
         <v>449.9558388556146</v>
       </c>
       <c r="O26" t="n">
-        <v>387.5401023963827</v>
+        <v>387.5401023963828</v>
       </c>
       <c r="P26" t="n">
         <v>314.5338326111702</v>
@@ -36616,7 +36616,7 @@
         <v>195.3077574804368</v>
       </c>
       <c r="R26" t="n">
-        <v>31.88014854223974</v>
+        <v>31.88014854223979</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>25.60609762271692</v>
+        <v>25.60609762271693</v>
       </c>
       <c r="K27" t="n">
         <v>171.6647408465574</v>
@@ -36692,7 +36692,7 @@
         <v>237.7515974477166</v>
       </c>
       <c r="Q27" t="n">
-        <v>105.7005765146417</v>
+        <v>105.7005765146418</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36735,10 +36735,10 @@
         <v>0.3866172046441534</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>2.568127576287338</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>3.581042199925264</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>72.17574026944445</v>
       </c>
       <c r="K28" t="n">
-        <v>36.4133539083276</v>
+        <v>4.899026817099266</v>
       </c>
       <c r="L28" t="n">
-        <v>211.3584655526038</v>
+        <v>62.35637532974726</v>
       </c>
       <c r="M28" t="n">
-        <v>225.2422087309366</v>
+        <v>76.24011850808009</v>
       </c>
       <c r="N28" t="n">
-        <v>79.9168104322269</v>
+        <v>228.9189006550834</v>
       </c>
       <c r="O28" t="n">
         <v>206.6401232903458</v>
       </c>
       <c r="P28" t="n">
-        <v>25.56102968948143</v>
+        <v>45.33117345932082</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>82.42136349858845</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>181.2989258938928</v>
       </c>
       <c r="K29" t="n">
-        <v>319.3711235378015</v>
+        <v>319.3711235378019</v>
       </c>
       <c r="L29" t="n">
         <v>413.1646153955678</v>
@@ -36853,7 +36853,7 @@
         <v>195.3077574804368</v>
       </c>
       <c r="R29" t="n">
-        <v>31.88014854223981</v>
+        <v>31.88014854223979</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>25.60609762271692</v>
+        <v>25.60609762271693</v>
       </c>
       <c r="K30" t="n">
         <v>171.6647408465574</v>
@@ -36929,7 +36929,7 @@
         <v>237.7515974477166</v>
       </c>
       <c r="Q30" t="n">
-        <v>105.7005765146417</v>
+        <v>105.7005765146418</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36969,13 +36969,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.3866172046441534</v>
       </c>
       <c r="E31" t="n">
-        <v>2.568127576287367</v>
+        <v>2.568127576287338</v>
       </c>
       <c r="F31" t="n">
-        <v>3.581042199925292</v>
+        <v>3.581042199925264</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>72.17574026944447</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>153.9011170399558</v>
+        <v>4.899026817099266</v>
       </c>
       <c r="L31" t="n">
-        <v>62.35637532974725</v>
+        <v>211.3584655526038</v>
       </c>
       <c r="M31" t="n">
-        <v>76.24011850808007</v>
+        <v>225.2422087309366</v>
       </c>
       <c r="N31" t="n">
-        <v>79.9168104322269</v>
+        <v>105.2819677472427</v>
       </c>
       <c r="O31" t="n">
-        <v>160.2161575405606</v>
+        <v>206.6401232903458</v>
       </c>
       <c r="P31" t="n">
-        <v>174.563119912338</v>
+        <v>25.56102968948144</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37084,13 +37084,13 @@
         <v>387.5401023963828</v>
       </c>
       <c r="P32" t="n">
-        <v>314.5338326111703</v>
+        <v>314.5338326111699</v>
       </c>
       <c r="Q32" t="n">
         <v>195.3077574804368</v>
       </c>
       <c r="R32" t="n">
-        <v>31.88014854223981</v>
+        <v>31.88014854223982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>25.60609762271692</v>
+        <v>25.60609762271693</v>
       </c>
       <c r="K33" t="n">
         <v>171.6647408465574</v>
@@ -37166,7 +37166,7 @@
         <v>237.7515974477166</v>
       </c>
       <c r="Q33" t="n">
-        <v>105.7005765146417</v>
+        <v>105.7005765146418</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37206,13 +37206,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>0.3866172046441818</v>
       </c>
       <c r="E34" t="n">
         <v>2.568127576287367</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>3.581042199925292</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>4.899026817099259</v>
+        <v>4.899026817099266</v>
       </c>
       <c r="L34" t="n">
-        <v>62.35637532974725</v>
+        <v>211.3584655526038</v>
       </c>
       <c r="M34" t="n">
-        <v>105.5729352276647</v>
+        <v>168.1860025473631</v>
       </c>
       <c r="N34" t="n">
-        <v>228.9189006550834</v>
+        <v>79.9168104322269</v>
       </c>
       <c r="O34" t="n">
-        <v>206.6401232903458</v>
+        <v>206.6401232903459</v>
       </c>
       <c r="P34" t="n">
-        <v>174.563119912338</v>
+        <v>25.56102968948144</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>82.42136349858848</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,19 +37300,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>11.05475418179601</v>
       </c>
       <c r="J35" t="n">
-        <v>233.7294074628108</v>
+        <v>32.29683567103626</v>
       </c>
       <c r="K35" t="n">
-        <v>204.6336373106669</v>
+        <v>170.3690333149454</v>
       </c>
       <c r="L35" t="n">
-        <v>264.1625251727113</v>
+        <v>465.5950969644858</v>
       </c>
       <c r="M35" t="n">
-        <v>310.7059962806404</v>
+        <v>333.9158460945659</v>
       </c>
       <c r="N35" t="n">
         <v>300.9537486327581</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>25.60609762271692</v>
+        <v>25.60609762271693</v>
       </c>
       <c r="K36" t="n">
         <v>171.6647408465574</v>
@@ -37403,7 +37403,7 @@
         <v>237.7515974477166</v>
       </c>
       <c r="Q36" t="n">
-        <v>105.7005765146417</v>
+        <v>105.7005765146418</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37455,22 +37455,22 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>5.725078441760208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>5.725078441760172</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>4.899026817099259</v>
+        <v>4.899026817099266</v>
       </c>
       <c r="L37" t="n">
-        <v>62.35637532974725</v>
+        <v>62.35637532974726</v>
       </c>
       <c r="M37" t="n">
-        <v>76.24011850808007</v>
+        <v>76.24011850808009</v>
       </c>
       <c r="N37" t="n">
         <v>79.9168104322269</v>
@@ -37479,7 +37479,7 @@
         <v>57.6380330674893</v>
       </c>
       <c r="P37" t="n">
-        <v>25.56102968948143</v>
+        <v>25.56102968948144</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37537,13 +37537,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>11.05475418179604</v>
       </c>
       <c r="J38" t="n">
-        <v>179.3913689985799</v>
+        <v>172.6286271655786</v>
       </c>
       <c r="K38" t="n">
-        <v>170.3690333149453</v>
+        <v>170.3690333149454</v>
       </c>
       <c r="L38" t="n">
         <v>264.1625251727113</v>
@@ -37558,16 +37558,16 @@
         <v>238.5380121735263</v>
       </c>
       <c r="P38" t="n">
-        <v>366.9643141800883</v>
+        <v>165.5317423883137</v>
       </c>
       <c r="Q38" t="n">
-        <v>46.30566725758028</v>
+        <v>247.7382390493549</v>
       </c>
       <c r="R38" t="n">
-        <v>84.31063011115781</v>
+        <v>84.31063011115785</v>
       </c>
       <c r="S38" t="n">
-        <v>4.292012348794588</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>25.60609762271692</v>
+        <v>25.60609762271693</v>
       </c>
       <c r="K39" t="n">
-        <v>171.6647408465574</v>
+        <v>171.6647408465579</v>
       </c>
       <c r="L39" t="n">
         <v>292.8490715269737</v>
       </c>
       <c r="M39" t="n">
-        <v>394.2453179567723</v>
+        <v>394.2453179567719</v>
       </c>
       <c r="N39" t="n">
         <v>420.5454884978719</v>
@@ -37640,7 +37640,7 @@
         <v>237.7515974477166</v>
       </c>
       <c r="Q39" t="n">
-        <v>105.7005765146417</v>
+        <v>105.7005765146418</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,13 +37701,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>4.899026817099259</v>
+        <v>4.899026817099266</v>
       </c>
       <c r="L40" t="n">
-        <v>62.35637532974725</v>
+        <v>62.35637532974726</v>
       </c>
       <c r="M40" t="n">
-        <v>76.24011850808007</v>
+        <v>76.24011850808009</v>
       </c>
       <c r="N40" t="n">
         <v>79.9168104322269</v>
@@ -37716,10 +37716,10 @@
         <v>57.6380330674893</v>
       </c>
       <c r="P40" t="n">
-        <v>31.28610813124164</v>
+        <v>25.56102968948144</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>5.725078441759885</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>32.29683567103624</v>
+        <v>32.29683567103626</v>
       </c>
       <c r="K41" t="n">
-        <v>170.3690333149453</v>
+        <v>170.3690333149454</v>
       </c>
       <c r="L41" t="n">
-        <v>465.5950969644858</v>
+        <v>264.1625251727113</v>
       </c>
       <c r="M41" t="n">
-        <v>496.5136161699169</v>
+        <v>462.0925419569787</v>
       </c>
       <c r="N41" t="n">
         <v>300.9537486327581</v>
@@ -37795,13 +37795,13 @@
         <v>238.5380121735263</v>
       </c>
       <c r="P41" t="n">
-        <v>165.5317423883137</v>
+        <v>366.9643141800882</v>
       </c>
       <c r="Q41" t="n">
-        <v>96.19522315579965</v>
+        <v>46.3056672575803</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>84.31063011115776</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>25.60609762271692</v>
+        <v>25.60609762271693</v>
       </c>
       <c r="K42" t="n">
         <v>171.6647408465574</v>
       </c>
       <c r="L42" t="n">
-        <v>292.8490715269742</v>
+        <v>292.8490715269737</v>
       </c>
       <c r="M42" t="n">
         <v>394.2453179567719</v>
       </c>
       <c r="N42" t="n">
-        <v>420.5454884978719</v>
+        <v>420.5454884978724</v>
       </c>
       <c r="O42" t="n">
         <v>317.6304180575316</v>
@@ -37877,7 +37877,7 @@
         <v>237.7515974477166</v>
       </c>
       <c r="Q42" t="n">
-        <v>105.7005765146417</v>
+        <v>105.7005765146418</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,28 +37938,28 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>4.899026817099259</v>
+        <v>4.899026817099266</v>
       </c>
       <c r="L43" t="n">
-        <v>62.35637532974725</v>
+        <v>62.35637532974726</v>
       </c>
       <c r="M43" t="n">
-        <v>76.24011850808007</v>
+        <v>76.24011850808009</v>
       </c>
       <c r="N43" t="n">
         <v>79.9168104322269</v>
       </c>
       <c r="O43" t="n">
-        <v>57.6380330674893</v>
+        <v>63.3631115092499</v>
       </c>
       <c r="P43" t="n">
-        <v>25.56102968948143</v>
+        <v>25.56102968948144</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.725078441760402</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38011,37 +38011,37 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>11.05475418179596</v>
       </c>
       <c r="J44" t="n">
-        <v>32.29683567103624</v>
+        <v>32.29683567103626</v>
       </c>
       <c r="K44" t="n">
-        <v>170.3690333149453</v>
+        <v>170.3690333149454</v>
       </c>
       <c r="L44" t="n">
-        <v>465.5950969644858</v>
+        <v>264.1625251727113</v>
       </c>
       <c r="M44" t="n">
-        <v>496.5136161699169</v>
+        <v>310.7059962806404</v>
       </c>
       <c r="N44" t="n">
-        <v>300.9537486327581</v>
+        <v>324.1635984466837</v>
       </c>
       <c r="O44" t="n">
         <v>238.5380121735263</v>
       </c>
       <c r="P44" t="n">
-        <v>165.5317423883137</v>
+        <v>366.9643141800882</v>
       </c>
       <c r="Q44" t="n">
-        <v>91.90321080700507</v>
+        <v>247.7382390493548</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>4.292012348794559</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>25.60609762271692</v>
+        <v>25.60609762271693</v>
       </c>
       <c r="K45" t="n">
         <v>171.6647408465574</v>
@@ -38114,7 +38114,7 @@
         <v>237.7515974477166</v>
       </c>
       <c r="Q45" t="n">
-        <v>105.7005765146417</v>
+        <v>105.7005765146418</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,28 +38175,28 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>4.899026817099259</v>
+        <v>4.899026817099266</v>
       </c>
       <c r="L46" t="n">
-        <v>62.35637532974725</v>
+        <v>62.35637532974726</v>
       </c>
       <c r="M46" t="n">
-        <v>76.24011850808007</v>
+        <v>76.24011850808009</v>
       </c>
       <c r="N46" t="n">
         <v>79.9168104322269</v>
       </c>
       <c r="O46" t="n">
-        <v>57.6380330674893</v>
+        <v>63.3631115092499</v>
       </c>
       <c r="P46" t="n">
-        <v>25.56102968948143</v>
+        <v>25.56102968948144</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>5.725078441760402</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
